--- a/raw_data/20200818_saline/20200818_Sensor0_Test_34.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_34.xlsx
@@ -1,1641 +1,2057 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEAA913-545C-4BAD-86B1-19AFA53611AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>29702.934504</v>
+        <v>29702.934504000001</v>
       </c>
       <c r="B2" s="1">
-        <v>8.250815</v>
+        <v>8.2508149999999993</v>
       </c>
       <c r="C2" s="1">
-        <v>905.724000</v>
+        <v>905.72400000000005</v>
       </c>
       <c r="D2" s="1">
-        <v>-196.979000</v>
+        <v>-196.97900000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>29713.359913</v>
       </c>
       <c r="G2" s="1">
-        <v>8.253711</v>
+        <v>8.2537109999999991</v>
       </c>
       <c r="H2" s="1">
-        <v>922.687000</v>
+        <v>922.68700000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-166.959000</v>
+        <v>-166.959</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>29723.815581</v>
+        <v>29723.815580999999</v>
       </c>
       <c r="L2" s="1">
         <v>8.256615</v>
       </c>
       <c r="M2" s="1">
-        <v>945.001000</v>
+        <v>945.00099999999998</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.468000</v>
+        <v>-119.468</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>29734.628365</v>
       </c>
       <c r="Q2" s="1">
-        <v>8.259619</v>
+        <v>8.2596190000000007</v>
       </c>
       <c r="R2" s="1">
-        <v>951.427000</v>
+        <v>951.42700000000002</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.842000</v>
+        <v>-103.842</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>29745.222911</v>
+        <v>29745.222911000001</v>
       </c>
       <c r="V2" s="1">
-        <v>8.262562</v>
+        <v>8.2625620000000009</v>
       </c>
       <c r="W2" s="1">
-        <v>957.809000</v>
+        <v>957.80899999999997</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.998300</v>
+        <v>-89.9983</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>29755.413223</v>
       </c>
       <c r="AA2" s="1">
-        <v>8.265393</v>
+        <v>8.2653929999999995</v>
       </c>
       <c r="AB2" s="1">
-        <v>964.877000</v>
+        <v>964.87699999999995</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.407900</v>
+        <v>-80.407899999999998</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>29765.283638</v>
+        <v>29765.283638000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>8.268134</v>
+        <v>8.2681339999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>969.816000</v>
+        <v>969.81600000000003</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.884600</v>
+        <v>-79.884600000000006</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>29775.390089</v>
       </c>
       <c r="AK2" s="1">
-        <v>8.270942</v>
+        <v>8.2709419999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>977.751000</v>
+        <v>977.75099999999998</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.574200</v>
+        <v>-87.574200000000005</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>29785.631990</v>
+        <v>29785.631990000002</v>
       </c>
       <c r="AP2" s="1">
-        <v>8.273787</v>
+        <v>8.2737870000000004</v>
       </c>
       <c r="AQ2" s="1">
-        <v>986.908000</v>
+        <v>986.90800000000002</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.434000</v>
+        <v>-102.434</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>29796.317293</v>
       </c>
       <c r="AU2" s="1">
-        <v>8.276755</v>
+        <v>8.2767549999999996</v>
       </c>
       <c r="AV2" s="1">
-        <v>998.300000</v>
+        <v>998.3</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.899000</v>
+        <v>-123.899</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>29807.790749</v>
       </c>
       <c r="AZ2" s="1">
-        <v>8.279942</v>
+        <v>8.2799420000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1007.930000</v>
+        <v>1007.93</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.576000</v>
+        <v>-142.57599999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>29818.742911</v>
+        <v>29818.742911000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>8.282984</v>
+        <v>8.2829840000000008</v>
       </c>
       <c r="BF2" s="1">
-        <v>1053.090000</v>
+        <v>1053.0899999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-227.071000</v>
+        <v>-227.071</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>29829.832961</v>
       </c>
       <c r="BJ2" s="1">
-        <v>8.286065</v>
+        <v>8.2860650000000007</v>
       </c>
       <c r="BK2" s="1">
-        <v>1132.030000</v>
+        <v>1132.03</v>
       </c>
       <c r="BL2" s="1">
-        <v>-362.837000</v>
+        <v>-362.83699999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>29841.242962</v>
       </c>
       <c r="BO2" s="1">
-        <v>8.289234</v>
+        <v>8.2892340000000004</v>
       </c>
       <c r="BP2" s="1">
-        <v>1262.670000</v>
+        <v>1262.67</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-573.187000</v>
+        <v>-573.18700000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>29851.992722</v>
+        <v>29851.992721999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>8.292220</v>
+        <v>8.2922200000000004</v>
       </c>
       <c r="BU2" s="1">
-        <v>1409.540000</v>
+        <v>1409.54</v>
       </c>
       <c r="BV2" s="1">
-        <v>-798.542000</v>
+        <v>-798.54200000000003</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>29863.456261</v>
+        <v>29863.456260999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>8.295405</v>
+        <v>8.2954050000000006</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1571.730000</v>
+        <v>1571.73</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1033.330000</v>
+        <v>-1033.33</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>29874.603348</v>
+        <v>29874.603348000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>8.298501</v>
+        <v>8.2985009999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1982.460000</v>
+        <v>1982.46</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1581.190000</v>
+        <v>-1581.19</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>29703.335270</v>
+        <v>29703.33527</v>
       </c>
       <c r="B3" s="1">
-        <v>8.250926</v>
+        <v>8.2509259999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>905.704000</v>
+        <v>905.70399999999995</v>
       </c>
       <c r="D3" s="1">
-        <v>-196.939000</v>
+        <v>-196.93899999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>29713.723481</v>
+        <v>29713.723481000001</v>
       </c>
       <c r="G3" s="1">
-        <v>8.253812</v>
+        <v>8.2538119999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>922.421000</v>
+        <v>922.42100000000005</v>
       </c>
       <c r="I3" s="1">
-        <v>-166.588000</v>
+        <v>-166.58799999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>29724.511962</v>
       </c>
       <c r="L3" s="1">
-        <v>8.256809</v>
+        <v>8.2568090000000005</v>
       </c>
       <c r="M3" s="1">
-        <v>944.814000</v>
+        <v>944.81399999999996</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.332000</v>
+        <v>-119.33199999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>29735.054462</v>
       </c>
       <c r="Q3" s="1">
-        <v>8.259737</v>
+        <v>8.2597369999999994</v>
       </c>
       <c r="R3" s="1">
-        <v>951.446000</v>
+        <v>951.44600000000003</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.849000</v>
+        <v>-103.849</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>29745.612270</v>
+        <v>29745.612270000001</v>
       </c>
       <c r="V3" s="1">
-        <v>8.262670</v>
+        <v>8.26267</v>
       </c>
       <c r="W3" s="1">
-        <v>957.736000</v>
+        <v>957.73599999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.024500</v>
+        <v>-90.024500000000003</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>29755.763432</v>
       </c>
       <c r="AA3" s="1">
-        <v>8.265490</v>
+        <v>8.2654899999999998</v>
       </c>
       <c r="AB3" s="1">
-        <v>964.892000</v>
+        <v>964.89200000000005</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.306100</v>
+        <v>-80.306100000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>29765.664149</v>
       </c>
       <c r="AF3" s="1">
-        <v>8.268240</v>
+        <v>8.2682400000000005</v>
       </c>
       <c r="AG3" s="1">
-        <v>969.790000</v>
+        <v>969.79</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.891900</v>
+        <v>-79.891900000000007</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>29775.773530</v>
+        <v>29775.773529999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>8.271048</v>
+        <v>8.2710480000000004</v>
       </c>
       <c r="AL3" s="1">
-        <v>977.704000</v>
+        <v>977.70399999999995</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.586700</v>
+        <v>-87.586699999999993</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>29786.059033</v>
+        <v>29786.059033000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>8.273905</v>
+        <v>8.2739049999999992</v>
       </c>
       <c r="AQ3" s="1">
-        <v>986.895000</v>
+        <v>986.89499999999998</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.442000</v>
+        <v>-102.44199999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>29797.087579</v>
+        <v>29797.087578999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>8.276969</v>
+        <v>8.2769689999999994</v>
       </c>
       <c r="AV3" s="1">
-        <v>998.313000</v>
+        <v>998.31299999999999</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.908000</v>
+        <v>-123.908</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>29808.206428</v>
+        <v>29808.206428000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>8.280057</v>
+        <v>8.2800569999999993</v>
       </c>
       <c r="BA3" s="1">
-        <v>1007.900000</v>
+        <v>1007.9</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.579000</v>
+        <v>-142.57900000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>29819.110479</v>
+        <v>29819.110478999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>8.283086</v>
+        <v>8.2830860000000008</v>
       </c>
       <c r="BF3" s="1">
-        <v>1053.080000</v>
+        <v>1053.08</v>
       </c>
       <c r="BG3" s="1">
-        <v>-227.097000</v>
+        <v>-227.09700000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>29830.211407</v>
+        <v>29830.211406999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>8.286170</v>
+        <v>8.2861700000000003</v>
       </c>
       <c r="BK3" s="1">
-        <v>1132.040000</v>
+        <v>1132.04</v>
       </c>
       <c r="BL3" s="1">
-        <v>-362.846000</v>
+        <v>-362.846</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>29841.662085</v>
       </c>
       <c r="BO3" s="1">
-        <v>8.289351</v>
+        <v>8.2893509999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1262.720000</v>
+        <v>1262.72</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-573.222000</v>
+        <v>-573.22199999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>29852.425234</v>
+        <v>29852.425233999998</v>
       </c>
       <c r="BT3" s="1">
-        <v>8.292340</v>
+        <v>8.2923399999999994</v>
       </c>
       <c r="BU3" s="1">
-        <v>1409.450000</v>
+        <v>1409.45</v>
       </c>
       <c r="BV3" s="1">
-        <v>-798.545000</v>
+        <v>-798.54499999999996</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>29863.901700</v>
+        <v>29863.901699999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>8.295528</v>
+        <v>8.2955279999999991</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1571.770000</v>
+        <v>1571.77</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1033.320000</v>
+        <v>-1033.32</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>29875.193120</v>
+        <v>29875.19312</v>
       </c>
       <c r="CD3" s="1">
-        <v>8.298665</v>
+        <v>8.2986649999999997</v>
       </c>
       <c r="CE3" s="1">
-        <v>1980.800000</v>
+        <v>1980.8</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1581.120000</v>
+        <v>-1581.12</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>29703.987015</v>
+        <v>29703.987014999999</v>
       </c>
       <c r="B4" s="1">
-        <v>8.251108</v>
+        <v>8.2511080000000003</v>
       </c>
       <c r="C4" s="1">
-        <v>905.868000</v>
+        <v>905.86800000000005</v>
       </c>
       <c r="D4" s="1">
-        <v>-196.848000</v>
+        <v>-196.84800000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>29714.350457</v>
       </c>
       <c r="G4" s="1">
-        <v>8.253986</v>
+        <v>8.2539859999999994</v>
       </c>
       <c r="H4" s="1">
-        <v>922.279000</v>
+        <v>922.279</v>
       </c>
       <c r="I4" s="1">
-        <v>-166.806000</v>
+        <v>-166.80600000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>29724.890940</v>
+        <v>29724.890940000001</v>
       </c>
       <c r="L4" s="1">
-        <v>8.256914</v>
+        <v>8.2569140000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>944.798000</v>
+        <v>944.798</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.198000</v>
+        <v>-119.19799999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>29735.407619</v>
+        <v>29735.407619000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>8.259835</v>
+        <v>8.2598350000000007</v>
       </c>
       <c r="R4" s="1">
-        <v>951.442000</v>
+        <v>951.44200000000001</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.873000</v>
+        <v>-103.873</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>29745.966911</v>
       </c>
       <c r="V4" s="1">
-        <v>8.262769</v>
+        <v>8.2627690000000005</v>
       </c>
       <c r="W4" s="1">
-        <v>957.709000</v>
+        <v>957.70899999999995</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.055000</v>
+        <v>-90.055000000000007</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>29756.112081</v>
+        <v>29756.112080999999</v>
       </c>
       <c r="AA4" s="1">
         <v>8.265587</v>
       </c>
       <c r="AB4" s="1">
-        <v>964.894000</v>
+        <v>964.89400000000001</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.350600</v>
+        <v>-80.3506</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>29766.095557</v>
+        <v>29766.095557000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>8.268360</v>
+        <v>8.2683599999999995</v>
       </c>
       <c r="AG4" s="1">
-        <v>969.837000</v>
+        <v>969.83699999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.926900</v>
+        <v>-79.926900000000003</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>29776.204518</v>
+        <v>29776.204517999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>8.271168</v>
+        <v>8.2711679999999994</v>
       </c>
       <c r="AL4" s="1">
-        <v>977.710000</v>
+        <v>977.71</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.570500</v>
+        <v>-87.570499999999996</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>29786.395554</v>
+        <v>29786.395553999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>8.273999</v>
+        <v>8.2739989999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>986.909000</v>
+        <v>986.90899999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.427000</v>
+        <v>-102.42700000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>29797.452171</v>
+        <v>29797.452171000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>8.277070</v>
+        <v>8.2770700000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>998.283000</v>
+        <v>998.28300000000002</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.905000</v>
+        <v>-123.905</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>29808.563051</v>
+        <v>29808.563051000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>8.280156</v>
+        <v>8.2801559999999998</v>
       </c>
       <c r="BA4" s="1">
-        <v>1007.930000</v>
+        <v>1007.93</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.576000</v>
+        <v>-142.57599999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>29819.470045</v>
+        <v>29819.470044999998</v>
       </c>
       <c r="BE4" s="1">
-        <v>8.283186</v>
+        <v>8.2831860000000006</v>
       </c>
       <c r="BF4" s="1">
-        <v>1053.080000</v>
+        <v>1053.08</v>
       </c>
       <c r="BG4" s="1">
-        <v>-227.071000</v>
+        <v>-227.071</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>29830.960862</v>
       </c>
       <c r="BJ4" s="1">
-        <v>8.286378</v>
+        <v>8.2863779999999991</v>
       </c>
       <c r="BK4" s="1">
-        <v>1132.050000</v>
+        <v>1132.05</v>
       </c>
       <c r="BL4" s="1">
-        <v>-362.847000</v>
+        <v>-362.84699999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>29842.080671</v>
       </c>
       <c r="BO4" s="1">
-        <v>8.289467</v>
+        <v>8.2894670000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1262.740000</v>
+        <v>1262.74</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-573.222000</v>
+        <v>-573.22199999999998</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>29852.842930</v>
+        <v>29852.842929999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>8.292456</v>
+        <v>8.2924559999999996</v>
       </c>
       <c r="BU4" s="1">
-        <v>1409.450000</v>
+        <v>1409.45</v>
       </c>
       <c r="BV4" s="1">
-        <v>-798.478000</v>
+        <v>-798.47799999999995</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>29864.320819</v>
       </c>
       <c r="BY4" s="1">
-        <v>8.295645</v>
+        <v>8.2956450000000004</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1571.810000</v>
+        <v>1571.81</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1033.180000</v>
+        <v>-1033.18</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>29875.734261</v>
+        <v>29875.734261000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>8.298815</v>
+        <v>8.2988149999999994</v>
       </c>
       <c r="CE4" s="1">
-        <v>1982.100000</v>
+        <v>1982.1</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1582.670000</v>
+        <v>-1582.67</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>29704.363477</v>
+        <v>29704.363476999999</v>
       </c>
       <c r="B5" s="1">
-        <v>8.251212</v>
+        <v>8.2512120000000007</v>
       </c>
       <c r="C5" s="1">
-        <v>905.877000</v>
+        <v>905.87699999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>-196.841000</v>
+        <v>-196.84100000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>29714.756152</v>
+        <v>29714.756152000002</v>
       </c>
       <c r="G5" s="1">
-        <v>8.254099</v>
+        <v>8.2540990000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>922.276000</v>
+        <v>922.27599999999995</v>
       </c>
       <c r="I5" s="1">
-        <v>-167.007000</v>
+        <v>-167.00700000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>29725.238603</v>
+        <v>29725.238603000002</v>
       </c>
       <c r="L5" s="1">
-        <v>8.257011</v>
+        <v>8.2570110000000003</v>
       </c>
       <c r="M5" s="1">
-        <v>944.865000</v>
+        <v>944.86500000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.421000</v>
+        <v>-119.42100000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>29735.754779</v>
+        <v>29735.754778999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>8.259932</v>
+        <v>8.2599319999999992</v>
       </c>
       <c r="R5" s="1">
-        <v>951.422000</v>
+        <v>951.42200000000003</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.859000</v>
+        <v>-103.85899999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>29746.312126</v>
+        <v>29746.312126000001</v>
       </c>
       <c r="V5" s="1">
-        <v>8.262864</v>
+        <v>8.2628640000000004</v>
       </c>
       <c r="W5" s="1">
-        <v>957.788000</v>
+        <v>957.78800000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.979700</v>
+        <v>-89.979699999999994</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>29756.538177</v>
+        <v>29756.538176999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>8.265705</v>
+        <v>8.2657050000000005</v>
       </c>
       <c r="AB5" s="1">
-        <v>964.930000</v>
+        <v>964.93</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.374700</v>
+        <v>-80.374700000000004</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>29766.352483</v>
+        <v>29766.352482999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>8.268431</v>
+        <v>8.2684309999999996</v>
       </c>
       <c r="AG5" s="1">
-        <v>969.815000</v>
+        <v>969.81500000000005</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.858200</v>
+        <v>-79.858199999999997</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>29776.496662</v>
+        <v>29776.496662000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>8.271249</v>
+        <v>8.2712489999999992</v>
       </c>
       <c r="AL5" s="1">
-        <v>977.714000</v>
+        <v>977.71400000000006</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.581500</v>
+        <v>-87.581500000000005</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>29786.753434</v>
+        <v>29786.753433999998</v>
       </c>
       <c r="AP5" s="1">
-        <v>8.274098</v>
+        <v>8.2740980000000004</v>
       </c>
       <c r="AQ5" s="1">
-        <v>986.902000</v>
+        <v>986.90200000000004</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.447000</v>
+        <v>-102.447</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>29797.817195</v>
       </c>
       <c r="AU5" s="1">
-        <v>8.277171</v>
+        <v>8.2771709999999992</v>
       </c>
       <c r="AV5" s="1">
-        <v>998.270000</v>
+        <v>998.27</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.908000</v>
+        <v>-123.908</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>29808.925131</v>
       </c>
       <c r="AZ5" s="1">
-        <v>8.280257</v>
+        <v>8.2802570000000006</v>
       </c>
       <c r="BA5" s="1">
-        <v>1007.920000</v>
+        <v>1007.92</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.573000</v>
+        <v>-142.57300000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>29820.190763</v>
+        <v>29820.190762999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>8.283386</v>
+        <v>8.2833860000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1053.080000</v>
+        <v>1053.08</v>
       </c>
       <c r="BG5" s="1">
-        <v>-227.100000</v>
+        <v>-227.1</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>29831.335869</v>
+        <v>29831.335868999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>8.286482</v>
+        <v>8.2864819999999995</v>
       </c>
       <c r="BK5" s="1">
-        <v>1132.070000</v>
+        <v>1132.07</v>
       </c>
       <c r="BL5" s="1">
-        <v>-362.862000</v>
+        <v>-362.86200000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>29842.476479</v>
+        <v>29842.476479000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>8.289577</v>
+        <v>8.2895769999999995</v>
       </c>
       <c r="BP5" s="1">
-        <v>1262.690000</v>
+        <v>1262.69</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-573.260000</v>
+        <v>-573.26</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>29853.258018</v>
       </c>
       <c r="BT5" s="1">
-        <v>8.292572</v>
+        <v>8.2925719999999998</v>
       </c>
       <c r="BU5" s="1">
-        <v>1409.370000</v>
+        <v>1409.37</v>
       </c>
       <c r="BV5" s="1">
-        <v>-798.456000</v>
+        <v>-798.45600000000002</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>29865.053873</v>
+        <v>29865.053873000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>8.295848</v>
+        <v>8.2958479999999994</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1571.790000</v>
+        <v>1571.79</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1033.220000</v>
+        <v>-1033.22</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>29876.590322</v>
       </c>
       <c r="CD5" s="1">
-        <v>8.299053</v>
+        <v>8.2990530000000007</v>
       </c>
       <c r="CE5" s="1">
-        <v>1980.490000</v>
+        <v>1980.49</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1581.710000</v>
+        <v>-1581.71</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>29704.706245</v>
+        <v>29704.706245000001</v>
       </c>
       <c r="B6" s="1">
-        <v>8.251307</v>
+        <v>8.2513070000000006</v>
       </c>
       <c r="C6" s="1">
-        <v>905.708000</v>
+        <v>905.70799999999997</v>
       </c>
       <c r="D6" s="1">
-        <v>-196.954000</v>
+        <v>-196.95400000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>29715.102887</v>
+        <v>29715.102887000001</v>
       </c>
       <c r="G6" s="1">
-        <v>8.254195</v>
+        <v>8.2541949999999993</v>
       </c>
       <c r="H6" s="1">
-        <v>923.043000</v>
+        <v>923.04300000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-167.029000</v>
+        <v>-167.029</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>29725.587321</v>
+        <v>29725.587320999999</v>
       </c>
       <c r="L6" s="1">
-        <v>8.257108</v>
+        <v>8.2571080000000006</v>
       </c>
       <c r="M6" s="1">
-        <v>944.945000</v>
+        <v>944.94500000000005</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.204000</v>
+        <v>-119.20399999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>29736.174395</v>
+        <v>29736.174394999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>8.260048</v>
+        <v>8.2600479999999994</v>
       </c>
       <c r="R6" s="1">
-        <v>951.412000</v>
+        <v>951.41200000000003</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.879000</v>
+        <v>-103.879</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>29746.737236</v>
+        <v>29746.737236000001</v>
       </c>
       <c r="V6" s="1">
-        <v>8.262983</v>
+        <v>8.2629830000000002</v>
       </c>
       <c r="W6" s="1">
-        <v>957.696000</v>
+        <v>957.69600000000003</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.004400</v>
+        <v>-90.004400000000004</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>29756.819905</v>
       </c>
       <c r="AA6" s="1">
-        <v>8.265783</v>
+        <v>8.2657830000000008</v>
       </c>
       <c r="AB6" s="1">
-        <v>965.005000</v>
+        <v>965.005</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.293000</v>
+        <v>-80.293000000000006</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>29766.690787</v>
       </c>
       <c r="AF6" s="1">
-        <v>8.268525</v>
+        <v>8.2685250000000003</v>
       </c>
       <c r="AG6" s="1">
-        <v>969.818000</v>
+        <v>969.81799999999998</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.848800</v>
+        <v>-79.848799999999997</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>29776.841916</v>
+        <v>29776.841916000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>8.271345</v>
+        <v>8.2713450000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>977.724000</v>
+        <v>977.72400000000005</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.550300</v>
+        <v>-87.550299999999993</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>29787.112195</v>
+        <v>29787.112195000002</v>
       </c>
       <c r="AP6" s="1">
-        <v>8.274198</v>
+        <v>8.2741980000000002</v>
       </c>
       <c r="AQ6" s="1">
-        <v>986.918000</v>
+        <v>986.91800000000001</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.443000</v>
+        <v>-102.443</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>29798.547306</v>
@@ -1644,330 +2060,330 @@
         <v>8.277374</v>
       </c>
       <c r="AV6" s="1">
-        <v>998.278000</v>
+        <v>998.27800000000002</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.914000</v>
+        <v>-123.914</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>29809.640362</v>
+        <v>29809.640361999998</v>
       </c>
       <c r="AZ6" s="1">
-        <v>8.280456</v>
+        <v>8.2804559999999992</v>
       </c>
       <c r="BA6" s="1">
-        <v>1007.930000</v>
+        <v>1007.93</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.564000</v>
+        <v>-142.56399999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>29820.576620</v>
+        <v>29820.57662</v>
       </c>
       <c r="BE6" s="1">
-        <v>8.283494</v>
+        <v>8.2834939999999992</v>
       </c>
       <c r="BF6" s="1">
-        <v>1053.090000</v>
+        <v>1053.0899999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-227.073000</v>
+        <v>-227.07300000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>29831.710349</v>
+        <v>29831.710349000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>8.286586</v>
+        <v>8.2865859999999998</v>
       </c>
       <c r="BK6" s="1">
-        <v>1132.040000</v>
+        <v>1132.04</v>
       </c>
       <c r="BL6" s="1">
-        <v>-362.827000</v>
+        <v>-362.827</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>29842.898575</v>
+        <v>29842.898574999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>8.289694</v>
+        <v>8.2896940000000008</v>
       </c>
       <c r="BP6" s="1">
-        <v>1262.680000</v>
+        <v>1262.68</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-573.258000</v>
+        <v>-573.25800000000004</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>29853.979728</v>
+        <v>29853.979727999998</v>
       </c>
       <c r="BT6" s="1">
-        <v>8.292772</v>
+        <v>8.2927719999999994</v>
       </c>
       <c r="BU6" s="1">
-        <v>1409.470000</v>
+        <v>1409.47</v>
       </c>
       <c r="BV6" s="1">
-        <v>-798.395000</v>
+        <v>-798.39499999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>29865.170928</v>
       </c>
       <c r="BY6" s="1">
-        <v>8.295881</v>
+        <v>8.2958809999999996</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1571.770000</v>
+        <v>1571.77</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1033.250000</v>
+        <v>-1033.25</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>29876.820961</v>
+        <v>29876.820961000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>8.299117</v>
+        <v>8.2991170000000007</v>
       </c>
       <c r="CE6" s="1">
-        <v>1980.610000</v>
+        <v>1980.61</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1582.070000</v>
+        <v>-1582.07</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>29705.047492</v>
+        <v>29705.047492000002</v>
       </c>
       <c r="B7" s="1">
-        <v>8.251402</v>
+        <v>8.2514020000000006</v>
       </c>
       <c r="C7" s="1">
-        <v>905.851000</v>
+        <v>905.851</v>
       </c>
       <c r="D7" s="1">
-        <v>-196.989000</v>
+        <v>-196.989</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>29715.522470</v>
+        <v>29715.52247</v>
       </c>
       <c r="G7" s="1">
-        <v>8.254312</v>
+        <v>8.2543120000000005</v>
       </c>
       <c r="H7" s="1">
-        <v>923.113000</v>
+        <v>923.11300000000006</v>
       </c>
       <c r="I7" s="1">
-        <v>-166.910000</v>
+        <v>-166.91</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>29726.007898</v>
       </c>
       <c r="L7" s="1">
-        <v>8.257224</v>
+        <v>8.2572240000000008</v>
       </c>
       <c r="M7" s="1">
-        <v>944.958000</v>
+        <v>944.95799999999997</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.222000</v>
+        <v>-119.22199999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>29736.466043</v>
       </c>
       <c r="Q7" s="1">
-        <v>8.260129</v>
+        <v>8.2601289999999992</v>
       </c>
       <c r="R7" s="1">
-        <v>951.379000</v>
+        <v>951.37900000000002</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.842000</v>
+        <v>-103.842</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>29747.005037</v>
+        <v>29747.005036999999</v>
       </c>
       <c r="V7" s="1">
-        <v>8.263057</v>
+        <v>8.2630569999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>957.786000</v>
+        <v>957.78599999999994</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.960000</v>
+        <v>-89.96</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>29757.169588</v>
+        <v>29757.169588000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>8.265880</v>
+        <v>8.2658799999999992</v>
       </c>
       <c r="AB7" s="1">
-        <v>964.857000</v>
+        <v>964.85699999999997</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.341800</v>
+        <v>-80.341800000000006</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>29767.035476</v>
+        <v>29767.035476000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>8.268621</v>
+        <v>8.2686209999999996</v>
       </c>
       <c r="AG7" s="1">
-        <v>969.826000</v>
+        <v>969.82600000000002</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.874900</v>
+        <v>-79.874899999999997</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>29777.188581</v>
+        <v>29777.188580999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>8.271441</v>
+        <v>8.2714409999999994</v>
       </c>
       <c r="AL7" s="1">
-        <v>977.730000</v>
+        <v>977.73</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.596500</v>
+        <v>-87.596500000000006</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>29787.833752</v>
+        <v>29787.833751999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>8.274398</v>
+        <v>8.2743979999999997</v>
       </c>
       <c r="AQ7" s="1">
-        <v>986.931000</v>
+        <v>986.93100000000004</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.454000</v>
+        <v>-102.45399999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>29798.935176</v>
+        <v>29798.935175999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>8.277482</v>
+        <v>8.2774819999999991</v>
       </c>
       <c r="AV7" s="1">
-        <v>998.295000</v>
+        <v>998.29499999999996</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.919000</v>
+        <v>-123.919</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>29810.000443</v>
+        <v>29810.000443000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>8.280556</v>
+        <v>8.2805560000000007</v>
       </c>
       <c r="BA7" s="1">
-        <v>1007.930000</v>
+        <v>1007.93</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.583000</v>
+        <v>-142.583</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>29820.957548</v>
+        <v>29820.957547999998</v>
       </c>
       <c r="BE7" s="1">
-        <v>8.283599</v>
+        <v>8.2835990000000006</v>
       </c>
       <c r="BF7" s="1">
-        <v>1053.120000</v>
+        <v>1053.1199999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-227.099000</v>
+        <v>-227.09899999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>29832.404220</v>
+        <v>29832.40422</v>
       </c>
       <c r="BJ7" s="1">
-        <v>8.286779</v>
+        <v>8.2867789999999992</v>
       </c>
       <c r="BK7" s="1">
-        <v>1132.040000</v>
+        <v>1132.04</v>
       </c>
       <c r="BL7" s="1">
-        <v>-362.859000</v>
+        <v>-362.85899999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>29843.602397</v>
+        <v>29843.602396999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>8.289890</v>
+        <v>8.2898899999999998</v>
       </c>
       <c r="BP7" s="1">
-        <v>1262.700000</v>
+        <v>1262.7</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-573.241000</v>
+        <v>-573.24099999999999</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>29854.086336</v>
@@ -1976,255 +2392,255 @@
         <v>8.292802</v>
       </c>
       <c r="BU7" s="1">
-        <v>1409.480000</v>
+        <v>1409.48</v>
       </c>
       <c r="BV7" s="1">
-        <v>-798.369000</v>
+        <v>-798.36900000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>29865.618320</v>
+        <v>29865.618320000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>8.296005</v>
+        <v>8.2960049999999992</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1571.880000</v>
+        <v>1571.88</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1033.450000</v>
+        <v>-1033.45</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>29877.334357</v>
       </c>
       <c r="CD7" s="1">
-        <v>8.299260</v>
+        <v>8.2992600000000003</v>
       </c>
       <c r="CE7" s="1">
-        <v>1981.670000</v>
+        <v>1981.67</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1582.570000</v>
+        <v>-1582.57</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>29705.477491</v>
+        <v>29705.477491000001</v>
       </c>
       <c r="B8" s="1">
-        <v>8.251522</v>
+        <v>8.2515219999999996</v>
       </c>
       <c r="C8" s="1">
-        <v>906.002000</v>
+        <v>906.00199999999995</v>
       </c>
       <c r="D8" s="1">
-        <v>-196.792000</v>
+        <v>-196.792</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>29715.806183</v>
+        <v>29715.806183000001</v>
       </c>
       <c r="G8" s="1">
         <v>8.254391</v>
       </c>
       <c r="H8" s="1">
-        <v>922.789000</v>
+        <v>922.78899999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-166.730000</v>
+        <v>-166.73</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>29726.293096</v>
+        <v>29726.293096000001</v>
       </c>
       <c r="L8" s="1">
-        <v>8.257304</v>
+        <v>8.2573039999999995</v>
       </c>
       <c r="M8" s="1">
-        <v>944.917000</v>
+        <v>944.91700000000003</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.407000</v>
+        <v>-119.407</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>29736.812746</v>
       </c>
       <c r="Q8" s="1">
-        <v>8.260226</v>
+        <v>8.2602259999999994</v>
       </c>
       <c r="R8" s="1">
-        <v>951.413000</v>
+        <v>951.41300000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.885000</v>
+        <v>-103.88500000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>29747.345822</v>
+        <v>29747.345821999999</v>
       </c>
       <c r="V8" s="1">
-        <v>8.263152</v>
+        <v>8.2631519999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>957.787000</v>
+        <v>957.78700000000003</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.963500</v>
+        <v>-89.963499999999996</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>29757.518735</v>
+        <v>29757.518735000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>8.265977</v>
+        <v>8.2659769999999995</v>
       </c>
       <c r="AB8" s="1">
-        <v>964.886000</v>
+        <v>964.88599999999997</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.344500</v>
+        <v>-80.344499999999996</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>29767.726428</v>
+        <v>29767.726428000002</v>
       </c>
       <c r="AF8" s="1">
-        <v>8.268813</v>
+        <v>8.2688129999999997</v>
       </c>
       <c r="AG8" s="1">
-        <v>969.805000</v>
+        <v>969.80499999999995</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.879000</v>
+        <v>-79.879000000000005</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>29777.887444</v>
       </c>
       <c r="AK8" s="1">
-        <v>8.271635</v>
+        <v>8.2716349999999998</v>
       </c>
       <c r="AL8" s="1">
-        <v>977.719000</v>
+        <v>977.71900000000005</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.568100</v>
+        <v>-87.568100000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>29788.192855</v>
+        <v>29788.192855000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>8.274498</v>
+        <v>8.2744979999999995</v>
       </c>
       <c r="AQ8" s="1">
-        <v>986.904000</v>
+        <v>986.904</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.419000</v>
+        <v>-102.419</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>29799.301225</v>
+        <v>29799.301224999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>8.277584</v>
+        <v>8.2775839999999992</v>
       </c>
       <c r="AV8" s="1">
-        <v>998.291000</v>
+        <v>998.29100000000005</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.905000</v>
+        <v>-123.905</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>29810.356091</v>
+        <v>29810.356091000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>8.280654</v>
+        <v>8.2806540000000002</v>
       </c>
       <c r="BA8" s="1">
-        <v>1007.930000</v>
+        <v>1007.93</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.566000</v>
+        <v>-142.566</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>29821.632602</v>
+        <v>29821.632602000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>8.283787</v>
+        <v>8.2837870000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1053.050000</v>
+        <v>1053.05</v>
       </c>
       <c r="BG8" s="1">
-        <v>-227.116000</v>
+        <v>-227.11600000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>29832.836731</v>
+        <v>29832.836730999999</v>
       </c>
       <c r="BJ8" s="1">
         <v>8.286899</v>
       </c>
       <c r="BK8" s="1">
-        <v>1132.050000</v>
+        <v>1132.05</v>
       </c>
       <c r="BL8" s="1">
-        <v>-362.869000</v>
+        <v>-362.86900000000003</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>29843.717469</v>
+        <v>29843.717468999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>8.289922</v>
+        <v>8.2899220000000007</v>
       </c>
       <c r="BP8" s="1">
-        <v>1262.700000</v>
+        <v>1262.7</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-573.280000</v>
+        <v>-573.28</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>29854.522319</v>
@@ -2233,1331 +2649,1331 @@
         <v>8.292923</v>
       </c>
       <c r="BU8" s="1">
-        <v>1409.480000</v>
+        <v>1409.48</v>
       </c>
       <c r="BV8" s="1">
-        <v>-798.285000</v>
+        <v>-798.28499999999997</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>29866.049839</v>
+        <v>29866.049838999999</v>
       </c>
       <c r="BY8" s="1">
         <v>8.296125</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1571.910000</v>
+        <v>1571.91</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1033.360000</v>
+        <v>-1033.3599999999999</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>29877.851685</v>
+        <v>29877.851685000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>8.299403</v>
+        <v>8.2994029999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1981.650000</v>
+        <v>1981.65</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1582.970000</v>
+        <v>-1582.97</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>29705.742355</v>
+        <v>29705.742354999998</v>
       </c>
       <c r="B9" s="1">
         <v>8.251595</v>
       </c>
       <c r="C9" s="1">
-        <v>905.900000</v>
+        <v>905.9</v>
       </c>
       <c r="D9" s="1">
-        <v>-197.005000</v>
+        <v>-197.005</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>29716.152886</v>
       </c>
       <c r="G9" s="1">
-        <v>8.254487</v>
+        <v>8.2544869999999992</v>
       </c>
       <c r="H9" s="1">
-        <v>922.932000</v>
+        <v>922.93200000000002</v>
       </c>
       <c r="I9" s="1">
-        <v>-166.568000</v>
+        <v>-166.56800000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>29726.633351</v>
       </c>
       <c r="L9" s="1">
-        <v>8.257398</v>
+        <v>8.2573980000000002</v>
       </c>
       <c r="M9" s="1">
-        <v>944.948000</v>
+        <v>944.94799999999998</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.160000</v>
+        <v>-119.16</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>29737.160938</v>
+        <v>29737.160938000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>8.260322</v>
+        <v>8.2603220000000004</v>
       </c>
       <c r="R9" s="1">
-        <v>951.459000</v>
+        <v>951.45899999999995</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.883000</v>
+        <v>-103.883</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>29748.031291</v>
+        <v>29748.031290999999</v>
       </c>
       <c r="V9" s="1">
-        <v>8.263342</v>
+        <v>8.2633419999999997</v>
       </c>
       <c r="W9" s="1">
-        <v>957.784000</v>
+        <v>957.78399999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.026100</v>
+        <v>-90.0261</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>29758.211152</v>
       </c>
       <c r="AA9" s="1">
-        <v>8.266170</v>
+        <v>8.2661700000000007</v>
       </c>
       <c r="AB9" s="1">
-        <v>964.814000</v>
+        <v>964.81399999999996</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.286800</v>
+        <v>-80.286799999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>29768.071153</v>
+        <v>29768.071153000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>8.268909</v>
+        <v>8.2689090000000007</v>
       </c>
       <c r="AG9" s="1">
-        <v>969.823000</v>
+        <v>969.82299999999998</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.878300</v>
+        <v>-79.878299999999996</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>29778.237656</v>
+        <v>29778.237656000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>8.271733</v>
+        <v>8.2717329999999993</v>
       </c>
       <c r="AL9" s="1">
-        <v>977.729000</v>
+        <v>977.72900000000004</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.570100</v>
+        <v>-87.570099999999996</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>29788.554936</v>
       </c>
       <c r="AP9" s="1">
-        <v>8.274599</v>
+        <v>8.2745990000000003</v>
       </c>
       <c r="AQ9" s="1">
-        <v>986.910000</v>
+        <v>986.91</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.449000</v>
+        <v>-102.449</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>29799.975319</v>
+        <v>29799.975319000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>8.277771</v>
+        <v>8.2777709999999995</v>
       </c>
       <c r="AV9" s="1">
-        <v>998.309000</v>
+        <v>998.30899999999997</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.916000</v>
+        <v>-123.916</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>29811.024664</v>
       </c>
       <c r="AZ9" s="1">
-        <v>8.280840</v>
+        <v>8.2808399999999995</v>
       </c>
       <c r="BA9" s="1">
-        <v>1007.910000</v>
+        <v>1007.91</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.582000</v>
+        <v>-142.58199999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>29822.039819</v>
+        <v>29822.039819000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>8.283900</v>
+        <v>8.2838999999999992</v>
       </c>
       <c r="BF9" s="1">
-        <v>1053.090000</v>
+        <v>1053.0899999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-227.090000</v>
+        <v>-227.09</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>29833.209724</v>
       </c>
       <c r="BJ9" s="1">
-        <v>8.287003</v>
+        <v>8.2870030000000003</v>
       </c>
       <c r="BK9" s="1">
-        <v>1132.060000</v>
+        <v>1132.06</v>
       </c>
       <c r="BL9" s="1">
-        <v>-362.892000</v>
+        <v>-362.892</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>29844.141549</v>
       </c>
       <c r="BO9" s="1">
-        <v>8.290039</v>
+        <v>8.2900390000000002</v>
       </c>
       <c r="BP9" s="1">
-        <v>1262.700000</v>
+        <v>1262.7</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-573.246000</v>
+        <v>-573.24599999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>29854.952846</v>
       </c>
       <c r="BT9" s="1">
-        <v>8.293042</v>
+        <v>8.2930419999999998</v>
       </c>
       <c r="BU9" s="1">
-        <v>1409.450000</v>
+        <v>1409.45</v>
       </c>
       <c r="BV9" s="1">
-        <v>-798.240000</v>
+        <v>-798.24</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>29866.476895</v>
       </c>
       <c r="BY9" s="1">
-        <v>8.296244</v>
+        <v>8.2962439999999997</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1571.750000</v>
+        <v>1571.75</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1033.330000</v>
+        <v>-1033.33</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>29878.414608</v>
+        <v>29878.414607999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>8.299560</v>
+        <v>8.2995599999999996</v>
       </c>
       <c r="CE9" s="1">
-        <v>1980.890000</v>
+        <v>1980.89</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1581.570000</v>
+        <v>-1581.57</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>29706.086579</v>
+        <v>29706.086578999999</v>
       </c>
       <c r="B10" s="1">
-        <v>8.251691</v>
+        <v>8.2516909999999992</v>
       </c>
       <c r="C10" s="1">
-        <v>905.994000</v>
+        <v>905.99400000000003</v>
       </c>
       <c r="D10" s="1">
-        <v>-196.971000</v>
+        <v>-196.971</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>29716.496614</v>
       </c>
       <c r="G10" s="1">
-        <v>8.254582</v>
+        <v>8.2545819999999992</v>
       </c>
       <c r="H10" s="1">
-        <v>922.763000</v>
+        <v>922.76300000000003</v>
       </c>
       <c r="I10" s="1">
-        <v>-166.594000</v>
+        <v>-166.59399999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>29726.981049</v>
+        <v>29726.981049000002</v>
       </c>
       <c r="L10" s="1">
-        <v>8.257495</v>
+        <v>8.2574950000000005</v>
       </c>
       <c r="M10" s="1">
-        <v>944.972000</v>
+        <v>944.97199999999998</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.246000</v>
+        <v>-119.246</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>29737.857322</v>
       </c>
       <c r="Q10" s="1">
-        <v>8.260516</v>
+        <v>8.2605160000000009</v>
       </c>
       <c r="R10" s="1">
-        <v>951.461000</v>
+        <v>951.46100000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.896000</v>
+        <v>-103.896</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>29748.377963</v>
+        <v>29748.377962999999</v>
       </c>
       <c r="V10" s="1">
-        <v>8.263438</v>
+        <v>8.2634380000000007</v>
       </c>
       <c r="W10" s="1">
-        <v>957.764000</v>
+        <v>957.76400000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.011900</v>
+        <v>-90.011899999999997</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>29758.562850</v>
+        <v>29758.562849999998</v>
       </c>
       <c r="AA10" s="1">
-        <v>8.266267</v>
+        <v>8.2662669999999991</v>
       </c>
       <c r="AB10" s="1">
-        <v>964.877000</v>
+        <v>964.87699999999995</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.358900</v>
+        <v>-80.358900000000006</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>29768.414352</v>
       </c>
       <c r="AF10" s="1">
-        <v>8.269004</v>
+        <v>8.2690040000000007</v>
       </c>
       <c r="AG10" s="1">
-        <v>969.842000</v>
+        <v>969.84199999999998</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.875500</v>
+        <v>-79.875500000000002</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>29778.585315</v>
       </c>
       <c r="AK10" s="1">
-        <v>8.271829</v>
+        <v>8.2718290000000003</v>
       </c>
       <c r="AL10" s="1">
-        <v>977.725000</v>
+        <v>977.72500000000002</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.556700</v>
+        <v>-87.556700000000006</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>29789.221525</v>
+        <v>29789.221525000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>8.274784</v>
+        <v>8.2747840000000004</v>
       </c>
       <c r="AQ10" s="1">
-        <v>986.936000</v>
+        <v>986.93600000000004</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.454000</v>
+        <v>-102.45399999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>29800.426646</v>
       </c>
       <c r="AU10" s="1">
-        <v>8.277896</v>
+        <v>8.2778960000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>998.287000</v>
+        <v>998.28700000000003</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.894000</v>
+        <v>-123.89400000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>29811.433400</v>
+        <v>29811.433400000002</v>
       </c>
       <c r="AZ10" s="1">
-        <v>8.280954</v>
+        <v>8.2809539999999995</v>
       </c>
       <c r="BA10" s="1">
-        <v>1007.910000</v>
+        <v>1007.91</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.554000</v>
+        <v>-142.554</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>29822.431198</v>
+        <v>29822.431197999998</v>
       </c>
       <c r="BE10" s="1">
-        <v>8.284009</v>
+        <v>8.2840089999999993</v>
       </c>
       <c r="BF10" s="1">
-        <v>1053.090000</v>
+        <v>1053.0899999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-227.085000</v>
+        <v>-227.08500000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>29833.590156</v>
+        <v>29833.590155999998</v>
       </c>
       <c r="BJ10" s="1">
-        <v>8.287108</v>
+        <v>8.2871079999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1132.050000</v>
+        <v>1132.05</v>
       </c>
       <c r="BL10" s="1">
-        <v>-362.874000</v>
+        <v>-362.87400000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>29844.537388</v>
+        <v>29844.537388000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>8.290149</v>
+        <v>8.2901489999999995</v>
       </c>
       <c r="BP10" s="1">
-        <v>1262.720000</v>
+        <v>1262.72</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-573.270000</v>
+        <v>-573.27</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>29855.377037</v>
+        <v>29855.377036999998</v>
       </c>
       <c r="BT10" s="1">
-        <v>8.293160</v>
+        <v>8.2931600000000003</v>
       </c>
       <c r="BU10" s="1">
-        <v>1409.700000</v>
+        <v>1409.7</v>
       </c>
       <c r="BV10" s="1">
-        <v>-798.262000</v>
+        <v>-798.26199999999994</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>29866.892046</v>
+        <v>29866.892046000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>8.296359</v>
+        <v>8.2963590000000007</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1571.830000</v>
+        <v>1571.83</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1033.480000</v>
+        <v>-1033.48</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>29878.962190</v>
+        <v>29878.962189999998</v>
       </c>
       <c r="CD10" s="1">
-        <v>8.299712</v>
+        <v>8.2997119999999995</v>
       </c>
       <c r="CE10" s="1">
-        <v>1981.500000</v>
+        <v>1981.5</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1582.730000</v>
+        <v>-1582.73</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>29706.430306</v>
+        <v>29706.430305999998</v>
       </c>
       <c r="B11" s="1">
-        <v>8.251786</v>
+        <v>8.2517859999999992</v>
       </c>
       <c r="C11" s="1">
-        <v>905.857000</v>
+        <v>905.85699999999997</v>
       </c>
       <c r="D11" s="1">
-        <v>-197.030000</v>
+        <v>-197.03</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>29717.186053</v>
+        <v>29717.186053000001</v>
       </c>
       <c r="G11" s="1">
-        <v>8.254774</v>
+        <v>8.2547739999999994</v>
       </c>
       <c r="H11" s="1">
-        <v>922.839000</v>
+        <v>922.83900000000006</v>
       </c>
       <c r="I11" s="1">
-        <v>-166.728000</v>
+        <v>-166.72800000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>29727.676934</v>
+        <v>29727.676933999999</v>
       </c>
       <c r="L11" s="1">
-        <v>8.257688</v>
+        <v>8.2576879999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>945.037000</v>
+        <v>945.03700000000003</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.394000</v>
+        <v>-119.39400000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>29738.206504</v>
+        <v>29738.206504000002</v>
       </c>
       <c r="Q11" s="1">
-        <v>8.260613</v>
+        <v>8.2606129999999993</v>
       </c>
       <c r="R11" s="1">
-        <v>951.430000</v>
+        <v>951.43</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.915000</v>
+        <v>-103.91500000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>29748.720202</v>
       </c>
       <c r="V11" s="1">
-        <v>8.263533</v>
+        <v>8.2635330000000007</v>
       </c>
       <c r="W11" s="1">
-        <v>957.871000</v>
+        <v>957.87099999999998</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.026400</v>
+        <v>-90.026399999999995</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>29758.911533</v>
+        <v>29758.911532999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>8.266364</v>
+        <v>8.2663639999999994</v>
       </c>
       <c r="AB11" s="1">
-        <v>964.869000</v>
+        <v>964.86900000000003</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.350700</v>
+        <v>-80.350700000000003</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>29769.076513</v>
       </c>
       <c r="AF11" s="1">
-        <v>8.269188</v>
+        <v>8.2691879999999998</v>
       </c>
       <c r="AG11" s="1">
-        <v>969.785000</v>
+        <v>969.78499999999997</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.898400</v>
+        <v>-79.898399999999995</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>29779.256898</v>
       </c>
       <c r="AK11" s="1">
-        <v>8.272016</v>
+        <v>8.2720160000000007</v>
       </c>
       <c r="AL11" s="1">
-        <v>977.731000</v>
+        <v>977.73099999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.571100</v>
+        <v>-87.571100000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>29789.668455</v>
+        <v>29789.668454999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>8.274908</v>
+        <v>8.2749079999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>986.916000</v>
+        <v>986.91600000000005</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.428000</v>
+        <v>-102.428</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>29800.789752</v>
+        <v>29800.789752000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>8.277997</v>
+        <v>8.2779969999999992</v>
       </c>
       <c r="AV11" s="1">
-        <v>998.296000</v>
+        <v>998.29600000000005</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.923000</v>
+        <v>-123.923</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>29811.819255</v>
+        <v>29811.819254999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>8.281061</v>
+        <v>8.2810609999999993</v>
       </c>
       <c r="BA11" s="1">
-        <v>1007.920000</v>
+        <v>1007.92</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.587000</v>
+        <v>-142.58699999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>29822.797210</v>
+        <v>29822.797210000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>8.284110</v>
+        <v>8.2841100000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1053.070000</v>
+        <v>1053.07</v>
       </c>
       <c r="BG11" s="1">
-        <v>-227.103000</v>
+        <v>-227.10300000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>29834.005306</v>
+        <v>29834.005305999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>8.287224</v>
+        <v>8.2872240000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1132.060000</v>
+        <v>1132.06</v>
       </c>
       <c r="BL11" s="1">
-        <v>-362.864000</v>
+        <v>-362.86399999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>29844.961468</v>
+        <v>29844.961468000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>8.290267</v>
+        <v>8.2902670000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1262.720000</v>
+        <v>1262.72</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-573.252000</v>
+        <v>-573.25199999999995</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>29855.832780</v>
+        <v>29855.832780000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>8.293287</v>
+        <v>8.2932869999999994</v>
       </c>
       <c r="BU11" s="1">
-        <v>1409.630000</v>
+        <v>1409.63</v>
       </c>
       <c r="BV11" s="1">
-        <v>-798.099000</v>
+        <v>-798.09900000000005</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>29867.318638</v>
+        <v>29867.318638000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>8.296477</v>
+        <v>8.2964769999999994</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1571.890000</v>
+        <v>1571.89</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1033.440000</v>
+        <v>-1033.44</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>29879.456206</v>
+        <v>29879.456205999999</v>
       </c>
       <c r="CD11" s="1">
         <v>8.299849</v>
       </c>
       <c r="CE11" s="1">
-        <v>1982.580000</v>
+        <v>1982.58</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1581.800000</v>
+        <v>-1581.8</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>29707.111810</v>
+        <v>29707.111809999999</v>
       </c>
       <c r="B12" s="1">
-        <v>8.251976</v>
+        <v>8.2519760000000009</v>
       </c>
       <c r="C12" s="1">
-        <v>905.913000</v>
+        <v>905.91300000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-196.949000</v>
+        <v>-196.94900000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>29717.531268</v>
+        <v>29717.531267999999</v>
       </c>
       <c r="G12" s="1">
-        <v>8.254870</v>
+        <v>8.2548700000000004</v>
       </c>
       <c r="H12" s="1">
-        <v>922.844000</v>
+        <v>922.84400000000005</v>
       </c>
       <c r="I12" s="1">
-        <v>-166.677000</v>
+        <v>-166.67699999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>29728.024134</v>
+        <v>29728.024133999999</v>
       </c>
       <c r="L12" s="1">
-        <v>8.257784</v>
+        <v>8.2577839999999991</v>
       </c>
       <c r="M12" s="1">
-        <v>944.967000</v>
+        <v>944.96699999999998</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.395000</v>
+        <v>-119.395</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>29738.555688</v>
       </c>
       <c r="Q12" s="1">
-        <v>8.260710</v>
+        <v>8.2607099999999996</v>
       </c>
       <c r="R12" s="1">
-        <v>951.421000</v>
+        <v>951.42100000000005</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.895000</v>
+        <v>-103.895</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>29749.373434</v>
+        <v>29749.373434000001</v>
       </c>
       <c r="V12" s="1">
-        <v>8.263715</v>
+        <v>8.2637149999999995</v>
       </c>
       <c r="W12" s="1">
-        <v>957.747000</v>
+        <v>957.74699999999996</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.068900</v>
+        <v>-90.068899999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>29759.569694</v>
+        <v>29759.569694000002</v>
       </c>
       <c r="AA12" s="1">
-        <v>8.266547</v>
+        <v>8.2665469999999992</v>
       </c>
       <c r="AB12" s="1">
-        <v>964.872000</v>
+        <v>964.87199999999996</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.403400</v>
+        <v>-80.403400000000005</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>29769.449535</v>
       </c>
       <c r="AF12" s="1">
-        <v>8.269292</v>
+        <v>8.2692920000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>969.838000</v>
+        <v>969.83799999999997</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.884100</v>
+        <v>-79.884100000000004</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>29779.630915</v>
+        <v>29779.630915000002</v>
       </c>
       <c r="AK12" s="1">
-        <v>8.272120</v>
+        <v>8.2721199999999993</v>
       </c>
       <c r="AL12" s="1">
-        <v>977.727000</v>
+        <v>977.72699999999998</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.584400</v>
+        <v>-87.584400000000002</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>29790.031492</v>
+        <v>29790.031491999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>8.275009</v>
+        <v>8.2750090000000007</v>
       </c>
       <c r="AQ12" s="1">
-        <v>986.901000</v>
+        <v>986.90099999999995</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.451000</v>
+        <v>-102.45099999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>29801.156293</v>
       </c>
       <c r="AU12" s="1">
-        <v>8.278099</v>
+        <v>8.2780989999999992</v>
       </c>
       <c r="AV12" s="1">
-        <v>998.290000</v>
+        <v>998.29</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.887000</v>
+        <v>-123.887</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>29812.180882</v>
+        <v>29812.180882000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>8.281161</v>
+        <v>8.2811610000000009</v>
       </c>
       <c r="BA12" s="1">
-        <v>1007.930000</v>
+        <v>1007.93</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.579000</v>
+        <v>-142.57900000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>29823.218841</v>
+        <v>29823.218841000002</v>
       </c>
       <c r="BE12" s="1">
-        <v>8.284227</v>
+        <v>8.2842269999999996</v>
       </c>
       <c r="BF12" s="1">
-        <v>1053.080000</v>
+        <v>1053.08</v>
       </c>
       <c r="BG12" s="1">
-        <v>-227.105000</v>
+        <v>-227.10499999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>29834.363417</v>
       </c>
       <c r="BJ12" s="1">
-        <v>8.287323</v>
+        <v>8.2873230000000007</v>
       </c>
       <c r="BK12" s="1">
-        <v>1132.060000</v>
+        <v>1132.06</v>
       </c>
       <c r="BL12" s="1">
-        <v>-362.847000</v>
+        <v>-362.84699999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>29845.350300</v>
+        <v>29845.350299999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>8.290375</v>
+        <v>8.2903749999999992</v>
       </c>
       <c r="BP12" s="1">
-        <v>1262.710000</v>
+        <v>1262.71</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-573.269000</v>
+        <v>-573.26900000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>29856.288574</v>
+        <v>29856.288573999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>8.293413</v>
+        <v>8.2934129999999993</v>
       </c>
       <c r="BU12" s="1">
-        <v>1409.650000</v>
+        <v>1409.65</v>
       </c>
       <c r="BV12" s="1">
-        <v>-798.144000</v>
+        <v>-798.14400000000001</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>29867.737262</v>
+        <v>29867.737261999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>8.296594</v>
+        <v>8.2965940000000007</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1571.850000</v>
+        <v>1571.85</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1033.340000</v>
+        <v>-1033.3399999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>29879.974031</v>
+        <v>29879.974031000002</v>
       </c>
       <c r="CD12" s="1">
-        <v>8.299993</v>
+        <v>8.2999930000000006</v>
       </c>
       <c r="CE12" s="1">
-        <v>1981.560000</v>
+        <v>1981.56</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1580.660000</v>
+        <v>-1580.66</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>29707.455537</v>
+        <v>29707.455537000002</v>
       </c>
       <c r="B13" s="1">
-        <v>8.252071</v>
+        <v>8.2520710000000008</v>
       </c>
       <c r="C13" s="1">
-        <v>905.805000</v>
+        <v>905.80499999999995</v>
       </c>
       <c r="D13" s="1">
-        <v>-196.856000</v>
+        <v>-196.85599999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>29717.881941</v>
       </c>
       <c r="G13" s="1">
-        <v>8.254967</v>
+        <v>8.2549670000000006</v>
       </c>
       <c r="H13" s="1">
-        <v>922.825000</v>
+        <v>922.82500000000005</v>
       </c>
       <c r="I13" s="1">
-        <v>-166.923000</v>
+        <v>-166.923</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>29728.372325</v>
       </c>
       <c r="L13" s="1">
-        <v>8.257881</v>
+        <v>8.2578809999999994</v>
       </c>
       <c r="M13" s="1">
-        <v>944.862000</v>
+        <v>944.86199999999997</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.302000</v>
+        <v>-119.30200000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>29739.211927</v>
       </c>
       <c r="Q13" s="1">
-        <v>8.260892</v>
+        <v>8.2608920000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>951.408000</v>
+        <v>951.40800000000002</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.836000</v>
+        <v>-103.836</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>29749.751914</v>
       </c>
       <c r="V13" s="1">
-        <v>8.263820</v>
+        <v>8.2638200000000008</v>
       </c>
       <c r="W13" s="1">
-        <v>957.813000</v>
+        <v>957.81299999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.996800</v>
+        <v>-89.996799999999993</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>29759.955084</v>
+        <v>29759.955084000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>8.266654</v>
+        <v>8.2666540000000008</v>
       </c>
       <c r="AB13" s="1">
-        <v>964.901000</v>
+        <v>964.90099999999995</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.364900</v>
+        <v>-80.364900000000006</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>29769.792735</v>
+        <v>29769.792734999999</v>
       </c>
       <c r="AF13" s="1">
         <v>8.269387</v>
       </c>
       <c r="AG13" s="1">
-        <v>969.834000</v>
+        <v>969.83399999999995</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.875300</v>
+        <v>-79.875299999999996</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>29779.976600</v>
+        <v>29779.976600000002</v>
       </c>
       <c r="AK13" s="1">
-        <v>8.272216</v>
+        <v>8.2722160000000002</v>
       </c>
       <c r="AL13" s="1">
-        <v>977.716000</v>
+        <v>977.71600000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.566900</v>
+        <v>-87.566900000000004</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>29790.391093</v>
+        <v>29790.391092999998</v>
       </c>
       <c r="AP13" s="1">
-        <v>8.275109</v>
+        <v>8.2751090000000005</v>
       </c>
       <c r="AQ13" s="1">
-        <v>986.913000</v>
+        <v>986.91300000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.437000</v>
+        <v>-102.437</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>29801.580341</v>
+        <v>29801.580341000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>8.278217</v>
+        <v>8.2782169999999997</v>
       </c>
       <c r="AV13" s="1">
-        <v>998.304000</v>
+        <v>998.30399999999997</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.908000</v>
+        <v>-123.908</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>29812.616823</v>
       </c>
       <c r="AZ13" s="1">
-        <v>8.281282</v>
+        <v>8.2812819999999991</v>
       </c>
       <c r="BA13" s="1">
-        <v>1007.940000</v>
+        <v>1007.94</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.582000</v>
+        <v>-142.58199999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>29823.515912</v>
+        <v>29823.515911999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>8.284310</v>
+        <v>8.2843099999999996</v>
       </c>
       <c r="BF13" s="1">
-        <v>1053.070000</v>
+        <v>1053.07</v>
       </c>
       <c r="BG13" s="1">
-        <v>-227.076000</v>
+        <v>-227.07599999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>29834.738889</v>
       </c>
       <c r="BJ13" s="1">
-        <v>8.287427</v>
+        <v>8.2874269999999992</v>
       </c>
       <c r="BK13" s="1">
-        <v>1132.060000</v>
+        <v>1132.06</v>
       </c>
       <c r="BL13" s="1">
-        <v>-362.866000</v>
+        <v>-362.86599999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>29845.790252</v>
+        <v>29845.790251999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>8.290497</v>
+        <v>8.2904970000000002</v>
       </c>
       <c r="BP13" s="1">
-        <v>1262.750000</v>
+        <v>1262.75</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-573.282000</v>
+        <v>-573.28200000000004</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>29856.700252</v>
+        <v>29856.700251999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>8.293528</v>
+        <v>8.2935280000000002</v>
       </c>
       <c r="BU13" s="1">
-        <v>1409.650000</v>
+        <v>1409.65</v>
       </c>
       <c r="BV13" s="1">
-        <v>-798.076000</v>
+        <v>-798.07600000000002</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>29868.181644</v>
       </c>
       <c r="BY13" s="1">
-        <v>8.296717</v>
+        <v>8.2967169999999992</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1571.890000</v>
+        <v>1571.89</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1033.260000</v>
+        <v>-1033.26</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>29880.490894</v>
+        <v>29880.490893999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>8.300136</v>
+        <v>8.3001360000000002</v>
       </c>
       <c r="CE13" s="1">
-        <v>1981.750000</v>
+        <v>1981.75</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1580.830000</v>
+        <v>-1580.83</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>29707.801281</v>
       </c>
@@ -3565,1284 +3981,1284 @@
         <v>8.252167</v>
       </c>
       <c r="C14" s="1">
-        <v>905.817000</v>
+        <v>905.81700000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-196.949000</v>
+        <v>-196.94900000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>29718.538643</v>
       </c>
       <c r="G14" s="1">
-        <v>8.255150</v>
+        <v>8.2551500000000004</v>
       </c>
       <c r="H14" s="1">
-        <v>922.759000</v>
+        <v>922.75900000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-166.529000</v>
+        <v>-166.529</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>29729.023605</v>
+        <v>29729.023604999998</v>
       </c>
       <c r="L14" s="1">
-        <v>8.258062</v>
+        <v>8.2580620000000007</v>
       </c>
       <c r="M14" s="1">
-        <v>944.822000</v>
+        <v>944.822</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.259000</v>
+        <v>-119.259</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>29739.600791</v>
+        <v>29739.600791000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>8.261000</v>
+        <v>8.2609999999999992</v>
       </c>
       <c r="R14" s="1">
-        <v>951.406000</v>
+        <v>951.40599999999995</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.814000</v>
+        <v>-103.81399999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>29750.094648</v>
+        <v>29750.094647999998</v>
       </c>
       <c r="V14" s="1">
-        <v>8.263915</v>
+        <v>8.2639150000000008</v>
       </c>
       <c r="W14" s="1">
-        <v>957.799000</v>
+        <v>957.79899999999998</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.024800</v>
+        <v>-90.024799999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>29760.305756</v>
+        <v>29760.305756000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>8.266752</v>
+        <v>8.2667520000000003</v>
       </c>
       <c r="AB14" s="1">
-        <v>964.871000</v>
+        <v>964.87099999999998</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.363800</v>
+        <v>-80.363799999999998</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>29770.136991</v>
+        <v>29770.136990999999</v>
       </c>
       <c r="AF14" s="1">
         <v>8.269482</v>
       </c>
       <c r="AG14" s="1">
-        <v>969.841000</v>
+        <v>969.84100000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.887500</v>
+        <v>-79.887500000000003</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>29780.558432</v>
+        <v>29780.558432000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>8.272377</v>
+        <v>8.2723770000000005</v>
       </c>
       <c r="AL14" s="1">
-        <v>977.728000</v>
+        <v>977.72799999999995</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.568700</v>
+        <v>-87.568700000000007</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>29790.814211</v>
+        <v>29790.814211000001</v>
       </c>
       <c r="AP14" s="1">
         <v>8.275226</v>
       </c>
       <c r="AQ14" s="1">
-        <v>986.904000</v>
+        <v>986.904</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.440000</v>
+        <v>-102.44</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>29801.883396</v>
+        <v>29801.883396000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>8.278301</v>
+        <v>8.2783010000000008</v>
       </c>
       <c r="AV14" s="1">
-        <v>998.301000</v>
+        <v>998.30100000000004</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.892000</v>
+        <v>-123.892</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>29812.898054</v>
+        <v>29812.898054000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>8.281361</v>
+        <v>8.2813610000000004</v>
       </c>
       <c r="BA14" s="1">
-        <v>1007.910000</v>
+        <v>1007.91</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.598000</v>
+        <v>-142.59800000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>29823.877528</v>
+        <v>29823.877528000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>8.284410</v>
+        <v>8.2844099999999994</v>
       </c>
       <c r="BF14" s="1">
-        <v>1053.110000</v>
+        <v>1053.1099999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-227.096000</v>
+        <v>-227.096</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>29835.114393</v>
       </c>
       <c r="BJ14" s="1">
-        <v>8.287532</v>
+        <v>8.2875320000000006</v>
       </c>
       <c r="BK14" s="1">
-        <v>1132.050000</v>
+        <v>1132.05</v>
       </c>
       <c r="BL14" s="1">
-        <v>-362.867000</v>
+        <v>-362.86700000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>29846.415210</v>
+        <v>29846.415209999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>8.290671</v>
+        <v>8.2906709999999997</v>
       </c>
       <c r="BP14" s="1">
-        <v>1262.700000</v>
+        <v>1262.7</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-573.274000</v>
+        <v>-573.274</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>29857.140205</v>
       </c>
       <c r="BT14" s="1">
-        <v>8.293650</v>
+        <v>8.2936499999999995</v>
       </c>
       <c r="BU14" s="1">
-        <v>1409.730000</v>
+        <v>1409.73</v>
       </c>
       <c r="BV14" s="1">
-        <v>-798.094000</v>
+        <v>-798.09400000000005</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>29868.602252</v>
+        <v>29868.602252000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>8.296834</v>
+        <v>8.2968340000000005</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1571.890000</v>
+        <v>1571.89</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1033.400000</v>
+        <v>-1033.4000000000001</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>29881.051836</v>
+        <v>29881.051835999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>8.300292</v>
+        <v>8.3002920000000007</v>
       </c>
       <c r="CE14" s="1">
-        <v>1982.360000</v>
+        <v>1982.36</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1581.670000</v>
+        <v>-1581.67</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>29708.449520</v>
+        <v>29708.449519999998</v>
       </c>
       <c r="B15" s="1">
-        <v>8.252347</v>
+        <v>8.2523470000000003</v>
       </c>
       <c r="C15" s="1">
-        <v>905.923000</v>
+        <v>905.923</v>
       </c>
       <c r="D15" s="1">
-        <v>-196.944000</v>
+        <v>-196.94399999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>29718.913618</v>
+        <v>29718.913617999999</v>
       </c>
       <c r="G15" s="1">
-        <v>8.255254</v>
+        <v>8.2552540000000008</v>
       </c>
       <c r="H15" s="1">
-        <v>922.927000</v>
+        <v>922.92700000000002</v>
       </c>
       <c r="I15" s="1">
-        <v>-166.827000</v>
+        <v>-166.827</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>29729.412932</v>
+        <v>29729.412931999999</v>
       </c>
       <c r="L15" s="1">
-        <v>8.258170</v>
+        <v>8.2581699999999998</v>
       </c>
       <c r="M15" s="1">
-        <v>945.049000</v>
+        <v>945.04899999999998</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.296000</v>
+        <v>-119.29600000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>29739.949688</v>
+        <v>29739.949688000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>8.261097</v>
+        <v>8.2610969999999995</v>
       </c>
       <c r="R15" s="1">
-        <v>951.432000</v>
+        <v>951.43200000000002</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.865000</v>
+        <v>-103.86499999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>29750.437881</v>
+        <v>29750.437881000002</v>
       </c>
       <c r="V15" s="1">
         <v>8.264011</v>
       </c>
       <c r="W15" s="1">
-        <v>957.778000</v>
+        <v>957.77800000000002</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.926400</v>
+        <v>-89.926400000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>29760.654939</v>
       </c>
       <c r="AA15" s="1">
-        <v>8.266849</v>
+        <v>8.2668490000000006</v>
       </c>
       <c r="AB15" s="1">
-        <v>964.888000</v>
+        <v>964.88800000000003</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.380900</v>
+        <v>-80.380899999999997</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>29770.563746</v>
       </c>
       <c r="AF15" s="1">
-        <v>8.269601</v>
+        <v>8.2696009999999998</v>
       </c>
       <c r="AG15" s="1">
-        <v>969.823000</v>
+        <v>969.82299999999998</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.874100</v>
+        <v>-79.874099999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>29780.676448</v>
+        <v>29780.676447999998</v>
       </c>
       <c r="AK15" s="1">
-        <v>8.272410</v>
+        <v>8.2724100000000007</v>
       </c>
       <c r="AL15" s="1">
-        <v>977.715000</v>
+        <v>977.71500000000003</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.570600</v>
+        <v>-87.570599999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>29791.109827</v>
       </c>
       <c r="AP15" s="1">
-        <v>8.275308</v>
+        <v>8.2753080000000008</v>
       </c>
       <c r="AQ15" s="1">
-        <v>986.903000</v>
+        <v>986.90300000000002</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.449000</v>
+        <v>-102.449</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>29802.251460</v>
+        <v>29802.251459999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>8.278403</v>
+        <v>8.2784030000000008</v>
       </c>
       <c r="AV15" s="1">
-        <v>998.289000</v>
+        <v>998.28899999999999</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.910000</v>
+        <v>-123.91</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>29813.256165</v>
+        <v>29813.256164999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>8.281460</v>
+        <v>8.2814599999999992</v>
       </c>
       <c r="BA15" s="1">
-        <v>1007.920000</v>
+        <v>1007.92</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.579000</v>
+        <v>-142.57900000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>29824.237095</v>
       </c>
       <c r="BE15" s="1">
-        <v>8.284510</v>
+        <v>8.2845099999999992</v>
       </c>
       <c r="BF15" s="1">
-        <v>1053.080000</v>
+        <v>1053.08</v>
       </c>
       <c r="BG15" s="1">
-        <v>-227.110000</v>
+        <v>-227.11</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>29835.866791</v>
       </c>
       <c r="BJ15" s="1">
-        <v>8.287741</v>
+        <v>8.2877410000000005</v>
       </c>
       <c r="BK15" s="1">
-        <v>1132.060000</v>
+        <v>1132.06</v>
       </c>
       <c r="BL15" s="1">
-        <v>-362.884000</v>
+        <v>-362.88400000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>29846.597275</v>
       </c>
       <c r="BO15" s="1">
-        <v>8.290721</v>
+        <v>8.2907209999999996</v>
       </c>
       <c r="BP15" s="1">
-        <v>1262.680000</v>
+        <v>1262.68</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-573.280000</v>
+        <v>-573.28</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>29857.568776</v>
       </c>
       <c r="BT15" s="1">
-        <v>8.293769</v>
+        <v>8.2937689999999993</v>
       </c>
       <c r="BU15" s="1">
-        <v>1409.730000</v>
+        <v>1409.73</v>
       </c>
       <c r="BV15" s="1">
-        <v>-798.052000</v>
+        <v>-798.05200000000002</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>29869.028330</v>
+        <v>29869.028330000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>8.296952</v>
+        <v>8.2969519999999992</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1571.850000</v>
+        <v>1571.85</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1033.380000</v>
+        <v>-1033.3800000000001</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>29881.895072</v>
+        <v>29881.895071999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>8.300526</v>
+        <v>8.3005259999999996</v>
       </c>
       <c r="CE15" s="1">
-        <v>1980.930000</v>
+        <v>1980.93</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1580.780000</v>
+        <v>-1580.78</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>29708.820069</v>
+        <v>29708.820069000001</v>
       </c>
       <c r="B16" s="1">
-        <v>8.252450</v>
+        <v>8.2524499999999996</v>
       </c>
       <c r="C16" s="1">
-        <v>905.834000</v>
+        <v>905.83399999999995</v>
       </c>
       <c r="D16" s="1">
-        <v>-196.906000</v>
+        <v>-196.90600000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>29719.257383</v>
       </c>
       <c r="G16" s="1">
-        <v>8.255349</v>
+        <v>8.2553490000000007</v>
       </c>
       <c r="H16" s="1">
-        <v>922.501000</v>
+        <v>922.50099999999998</v>
       </c>
       <c r="I16" s="1">
-        <v>-166.653000</v>
+        <v>-166.65299999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>29729.759140</v>
+        <v>29729.759139999998</v>
       </c>
       <c r="L16" s="1">
-        <v>8.258266</v>
+        <v>8.2582660000000008</v>
       </c>
       <c r="M16" s="1">
-        <v>944.945000</v>
+        <v>944.94500000000005</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.289000</v>
+        <v>-119.289</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>29740.299831</v>
       </c>
       <c r="Q16" s="1">
-        <v>8.261194</v>
+        <v>8.2611939999999997</v>
       </c>
       <c r="R16" s="1">
-        <v>951.425000</v>
+        <v>951.42499999999995</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.911000</v>
+        <v>-103.911</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>29750.860473</v>
+        <v>29750.860473000001</v>
       </c>
       <c r="V16" s="1">
-        <v>8.264128</v>
+        <v>8.2641279999999995</v>
       </c>
       <c r="W16" s="1">
-        <v>957.727000</v>
+        <v>957.72699999999998</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.895100</v>
+        <v>-89.895099999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>29761.084474</v>
+        <v>29761.084473999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>8.266968</v>
+        <v>8.2669680000000003</v>
       </c>
       <c r="AB16" s="1">
-        <v>964.979000</v>
+        <v>964.97900000000004</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.342600</v>
+        <v>-80.342600000000004</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>29770.831357</v>
+        <v>29770.831356999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>8.269675</v>
+        <v>8.2696749999999994</v>
       </c>
       <c r="AG16" s="1">
-        <v>969.821000</v>
+        <v>969.82100000000003</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.870900</v>
+        <v>-79.870900000000006</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>29781.024144</v>
+        <v>29781.024143999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>8.272507</v>
+        <v>8.2725069999999992</v>
       </c>
       <c r="AL16" s="1">
-        <v>977.733000</v>
+        <v>977.73299999999995</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.574200</v>
+        <v>-87.574200000000005</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>29791.469394</v>
       </c>
       <c r="AP16" s="1">
-        <v>8.275408</v>
+        <v>8.2754080000000005</v>
       </c>
       <c r="AQ16" s="1">
-        <v>986.906000</v>
+        <v>986.90599999999995</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.452000</v>
+        <v>-102.452</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>29802.614500</v>
+        <v>29802.6145</v>
       </c>
       <c r="AU16" s="1">
-        <v>8.278504</v>
+        <v>8.2785039999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>998.312000</v>
+        <v>998.31200000000001</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.897000</v>
+        <v>-123.89700000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>29813.971924</v>
+        <v>29813.971924000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>8.281659</v>
+        <v>8.2816589999999994</v>
       </c>
       <c r="BA16" s="1">
-        <v>1007.920000</v>
+        <v>1007.92</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.576000</v>
+        <v>-142.57599999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>29824.959767</v>
       </c>
       <c r="BE16" s="1">
-        <v>8.284711</v>
+        <v>8.2847109999999997</v>
       </c>
       <c r="BF16" s="1">
-        <v>1053.080000</v>
+        <v>1053.08</v>
       </c>
       <c r="BG16" s="1">
-        <v>-227.092000</v>
+        <v>-227.09200000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>29836.240291</v>
+        <v>29836.240290999998</v>
       </c>
       <c r="BJ16" s="1">
-        <v>8.287845</v>
+        <v>8.2878450000000008</v>
       </c>
       <c r="BK16" s="1">
-        <v>1132.070000</v>
+        <v>1132.07</v>
       </c>
       <c r="BL16" s="1">
-        <v>-362.863000</v>
+        <v>-362.863</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>29846.991065</v>
+        <v>29846.991064999998</v>
       </c>
       <c r="BO16" s="1">
-        <v>8.290831</v>
+        <v>8.2908310000000007</v>
       </c>
       <c r="BP16" s="1">
-        <v>1262.710000</v>
+        <v>1262.71</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-573.313000</v>
+        <v>-573.31299999999999</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>29857.981418</v>
+        <v>29857.981417999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>8.293884</v>
+        <v>8.2938840000000003</v>
       </c>
       <c r="BU16" s="1">
-        <v>1409.770000</v>
+        <v>1409.77</v>
       </c>
       <c r="BV16" s="1">
-        <v>-798.214000</v>
+        <v>-798.21400000000006</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>29869.785707</v>
+        <v>29869.785706999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>8.297163</v>
+        <v>8.2971629999999994</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1571.710000</v>
+        <v>1571.71</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1033.430000</v>
+        <v>-1033.43</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>29882.122732</v>
       </c>
       <c r="CD16" s="1">
-        <v>8.300590</v>
+        <v>8.3005899999999997</v>
       </c>
       <c r="CE16" s="1">
-        <v>1980.790000</v>
+        <v>1980.79</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1582.620000</v>
+        <v>-1582.62</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>29709.164255</v>
       </c>
       <c r="B17" s="1">
-        <v>8.252546</v>
+        <v>8.2525460000000006</v>
       </c>
       <c r="C17" s="1">
-        <v>905.691000</v>
+        <v>905.69100000000003</v>
       </c>
       <c r="D17" s="1">
-        <v>-197.116000</v>
+        <v>-197.11600000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>29719.600609</v>
+        <v>29719.600609000001</v>
       </c>
       <c r="G17" s="1">
-        <v>8.255445</v>
+        <v>8.2554449999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>922.386000</v>
+        <v>922.38599999999997</v>
       </c>
       <c r="I17" s="1">
-        <v>-167.026000</v>
+        <v>-167.02600000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>29730.111300</v>
+        <v>29730.1113</v>
       </c>
       <c r="L17" s="1">
-        <v>8.258364</v>
+        <v>8.2583640000000003</v>
       </c>
       <c r="M17" s="1">
-        <v>944.891000</v>
+        <v>944.89099999999996</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.260000</v>
+        <v>-119.26</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>29740.719237</v>
+        <v>29740.719237000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>8.261311</v>
+        <v>8.2613109999999992</v>
       </c>
       <c r="R17" s="1">
-        <v>951.426000</v>
+        <v>951.42600000000004</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.891000</v>
+        <v>-103.89100000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>29751.127316</v>
+        <v>29751.127315999998</v>
       </c>
       <c r="V17" s="1">
-        <v>8.264202</v>
+        <v>8.2642019999999992</v>
       </c>
       <c r="W17" s="1">
-        <v>957.773000</v>
+        <v>957.77300000000002</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.053100</v>
+        <v>-90.053100000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>29761.364714</v>
+        <v>29761.364713999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>8.267046</v>
+        <v>8.2670460000000006</v>
       </c>
       <c r="AB17" s="1">
-        <v>964.906000</v>
+        <v>964.90599999999995</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.406400</v>
+        <v>-80.406400000000005</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>29771.172109</v>
+        <v>29771.172108999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>8.269770</v>
+        <v>8.2697699999999994</v>
       </c>
       <c r="AG17" s="1">
-        <v>969.805000</v>
+        <v>969.80499999999995</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.904100</v>
+        <v>-79.9041</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>29781.365392</v>
       </c>
       <c r="AK17" s="1">
-        <v>8.272601</v>
+        <v>8.2726009999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>977.731000</v>
+        <v>977.73099999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.563800</v>
+        <v>-87.563800000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>29791.829490</v>
+        <v>29791.82949</v>
       </c>
       <c r="AP17" s="1">
-        <v>8.275508</v>
+        <v>8.2755080000000003</v>
       </c>
       <c r="AQ17" s="1">
-        <v>986.914000</v>
+        <v>986.91399999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.450000</v>
+        <v>-102.45</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>29803.345138</v>
+        <v>29803.345138000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>8.278707</v>
+        <v>8.2787070000000007</v>
       </c>
       <c r="AV17" s="1">
-        <v>998.319000</v>
+        <v>998.31899999999996</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.907000</v>
+        <v>-123.907</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>29814.332485</v>
+        <v>29814.332484999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>8.281759</v>
+        <v>8.2817589999999992</v>
       </c>
       <c r="BA17" s="1">
-        <v>1007.940000</v>
+        <v>1007.94</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.585000</v>
+        <v>-142.58500000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>29825.347670</v>
+        <v>29825.347669999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>8.284819</v>
+        <v>8.2848190000000006</v>
       </c>
       <c r="BF17" s="1">
-        <v>1053.080000</v>
+        <v>1053.08</v>
       </c>
       <c r="BG17" s="1">
-        <v>-227.093000</v>
+        <v>-227.09299999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>29836.616743</v>
+        <v>29836.616742999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>8.287949</v>
+        <v>8.2879489999999993</v>
       </c>
       <c r="BK17" s="1">
-        <v>1132.050000</v>
+        <v>1132.05</v>
       </c>
       <c r="BL17" s="1">
-        <v>-362.878000</v>
+        <v>-362.87799999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>29847.722675</v>
+        <v>29847.722675000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>8.291034</v>
+        <v>8.2910339999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1262.740000</v>
+        <v>1262.74</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-573.252000</v>
+        <v>-573.25199999999995</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>29858.712025</v>
+        <v>29858.712025000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>8.294087</v>
+        <v>8.2940869999999993</v>
       </c>
       <c r="BU17" s="1">
-        <v>1409.750000</v>
+        <v>1409.75</v>
       </c>
       <c r="BV17" s="1">
-        <v>-798.072000</v>
+        <v>-798.072</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>29869.907722</v>
       </c>
       <c r="BY17" s="1">
-        <v>8.297197</v>
+        <v>8.2971970000000006</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1571.920000</v>
+        <v>1571.92</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1033.300000</v>
+        <v>-1033.3</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>29882.656401</v>
       </c>
       <c r="CD17" s="1">
-        <v>8.300738</v>
+        <v>8.3007380000000008</v>
       </c>
       <c r="CE17" s="1">
-        <v>1982.670000</v>
+        <v>1982.67</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1581.200000</v>
+        <v>-1581.2</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>29709.507982</v>
+        <v>29709.507981999999</v>
       </c>
       <c r="B18" s="1">
-        <v>8.252641</v>
+        <v>8.2526410000000006</v>
       </c>
       <c r="C18" s="1">
-        <v>905.909000</v>
+        <v>905.90899999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-196.856000</v>
+        <v>-196.85599999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>29720.023201</v>
       </c>
       <c r="G18" s="1">
-        <v>8.255562</v>
+        <v>8.2555619999999994</v>
       </c>
       <c r="H18" s="1">
-        <v>922.384000</v>
+        <v>922.38400000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-166.917000</v>
+        <v>-166.917</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>29730.611267</v>
       </c>
       <c r="L18" s="1">
-        <v>8.258503</v>
+        <v>8.2585029999999993</v>
       </c>
       <c r="M18" s="1">
-        <v>944.856000</v>
+        <v>944.85599999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.227000</v>
+        <v>-119.227</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>29741.008405</v>
       </c>
       <c r="Q18" s="1">
-        <v>8.261391</v>
+        <v>8.2613909999999997</v>
       </c>
       <c r="R18" s="1">
-        <v>951.400000</v>
+        <v>951.4</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.863000</v>
+        <v>-103.863</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>29751.473535</v>
+        <v>29751.473535000001</v>
       </c>
       <c r="V18" s="1">
-        <v>8.264298</v>
+        <v>8.2642980000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>957.825000</v>
+        <v>957.82500000000005</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.990400</v>
+        <v>-89.990399999999994</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>29761.709963</v>
+        <v>29761.709963000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>8.267142</v>
+        <v>8.2671419999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>964.917000</v>
+        <v>964.91700000000003</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.304800</v>
+        <v>-80.3048</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>29771.518813</v>
+        <v>29771.518812999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>8.269866</v>
+        <v>8.2698660000000004</v>
       </c>
       <c r="AG18" s="1">
-        <v>969.828000</v>
+        <v>969.82799999999997</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.861500</v>
+        <v>-79.861500000000007</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>29782.071198</v>
+        <v>29782.071198000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>8.272798</v>
+        <v>8.2727979999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>977.725000</v>
+        <v>977.72500000000002</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.591200</v>
+        <v>-87.591200000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>29792.555137</v>
+        <v>29792.555136999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>8.275710</v>
+        <v>8.2757100000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>986.927000</v>
+        <v>986.92700000000002</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.426000</v>
+        <v>-102.426</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>29803.733970</v>
+        <v>29803.733970000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>8.278815</v>
+        <v>8.2788149999999998</v>
       </c>
       <c r="AV18" s="1">
-        <v>998.330000</v>
+        <v>998.33</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.904000</v>
+        <v>-123.904</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>29814.691587</v>
+        <v>29814.691587000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>8.281859</v>
+        <v>8.2818590000000007</v>
       </c>
       <c r="BA18" s="1">
-        <v>1007.910000</v>
+        <v>1007.91</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.579000</v>
+        <v>-142.57900000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>29825.728100</v>
+        <v>29825.7281</v>
       </c>
       <c r="BE18" s="1">
-        <v>8.284924</v>
+        <v>8.2849240000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1053.100000</v>
+        <v>1053.0999999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-227.074000</v>
+        <v>-227.07400000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>29837.299733</v>
       </c>
       <c r="BJ18" s="1">
-        <v>8.288139</v>
+        <v>8.2881389999999993</v>
       </c>
       <c r="BK18" s="1">
-        <v>1132.060000</v>
+        <v>1132.06</v>
       </c>
       <c r="BL18" s="1">
-        <v>-362.907000</v>
+        <v>-362.90699999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>29847.836744</v>
       </c>
       <c r="BO18" s="1">
-        <v>8.291066</v>
+        <v>8.2910660000000007</v>
       </c>
       <c r="BP18" s="1">
-        <v>1262.740000</v>
+        <v>1262.74</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-573.260000</v>
+        <v>-573.26</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>29858.835033</v>
+        <v>29858.835032999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>8.294121</v>
+        <v>8.2941210000000005</v>
       </c>
       <c r="BU18" s="1">
-        <v>1409.840000</v>
+        <v>1409.84</v>
       </c>
       <c r="BV18" s="1">
-        <v>-798.009000</v>
+        <v>-798.00900000000001</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>29870.346219</v>
+        <v>29870.346218999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>8.297318</v>
+        <v>8.2973180000000006</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1571.850000</v>
+        <v>1571.85</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1033.440000</v>
+        <v>-1033.44</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>29883.195080</v>
+        <v>29883.195080000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>8.300888</v>
+        <v>8.3008880000000005</v>
       </c>
       <c r="CE18" s="1">
-        <v>1981.000000</v>
+        <v>1981</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1581.470000</v>
+        <v>-1581.47</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>29709.929086</v>
       </c>
@@ -4850,73 +5266,73 @@
         <v>8.252758</v>
       </c>
       <c r="C19" s="1">
-        <v>905.959000</v>
+        <v>905.95899999999995</v>
       </c>
       <c r="D19" s="1">
-        <v>-196.974000</v>
+        <v>-196.97399999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>29720.294480</v>
+        <v>29720.29448</v>
       </c>
       <c r="G19" s="1">
-        <v>8.255637</v>
+        <v>8.2556370000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>922.587000</v>
+        <v>922.58699999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-166.707000</v>
+        <v>-166.70699999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>29730.803714</v>
+        <v>29730.803714000001</v>
       </c>
       <c r="L19" s="1">
-        <v>8.258557</v>
+        <v>8.2585569999999997</v>
       </c>
       <c r="M19" s="1">
-        <v>945.136000</v>
+        <v>945.13599999999997</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.217000</v>
+        <v>-119.217</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>29741.358613</v>
       </c>
       <c r="Q19" s="1">
-        <v>8.261489</v>
+        <v>8.2614889999999992</v>
       </c>
       <c r="R19" s="1">
-        <v>951.430000</v>
+        <v>951.43</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.829000</v>
+        <v>-103.82899999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>29751.812263</v>
       </c>
       <c r="V19" s="1">
-        <v>8.264392</v>
+        <v>8.2643920000000008</v>
       </c>
       <c r="W19" s="1">
-        <v>957.782000</v>
+        <v>957.78200000000004</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.012500</v>
+        <v>-90.012500000000003</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>29762.059146</v>
@@ -4925,315 +5341,315 @@
         <v>8.267239</v>
       </c>
       <c r="AB19" s="1">
-        <v>964.881000</v>
+        <v>964.88099999999997</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.422700</v>
+        <v>-80.422700000000006</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>29772.204781</v>
       </c>
       <c r="AF19" s="1">
-        <v>8.270057</v>
+        <v>8.2700569999999995</v>
       </c>
       <c r="AG19" s="1">
-        <v>969.841000</v>
+        <v>969.84100000000001</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.876800</v>
+        <v>-79.876800000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>29782.421374</v>
+        <v>29782.421374000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>8.272895</v>
+        <v>8.2728950000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>977.746000</v>
+        <v>977.74599999999998</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.565500</v>
+        <v>-87.5655</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>29792.934608</v>
       </c>
       <c r="AP19" s="1">
-        <v>8.275815</v>
+        <v>8.2758149999999997</v>
       </c>
       <c r="AQ19" s="1">
-        <v>986.900000</v>
+        <v>986.9</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.437000</v>
+        <v>-102.437</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>29804.096049</v>
       </c>
       <c r="AU19" s="1">
-        <v>8.278916</v>
+        <v>8.2789160000000006</v>
       </c>
       <c r="AV19" s="1">
-        <v>998.303000</v>
+        <v>998.303</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.891000</v>
+        <v>-123.89100000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>29815.351267</v>
+        <v>29815.351266999998</v>
       </c>
       <c r="AZ19" s="1">
-        <v>8.282042</v>
+        <v>8.2820420000000006</v>
       </c>
       <c r="BA19" s="1">
-        <v>1007.930000</v>
+        <v>1007.93</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.594000</v>
+        <v>-142.59399999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>29826.406137</v>
+        <v>29826.406137000002</v>
       </c>
       <c r="BE19" s="1">
-        <v>8.285113</v>
+        <v>8.2851130000000008</v>
       </c>
       <c r="BF19" s="1">
-        <v>1053.080000</v>
+        <v>1053.08</v>
       </c>
       <c r="BG19" s="1">
-        <v>-227.110000</v>
+        <v>-227.11</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>29837.742693</v>
       </c>
       <c r="BJ19" s="1">
-        <v>8.288262</v>
+        <v>8.2882619999999996</v>
       </c>
       <c r="BK19" s="1">
-        <v>1132.050000</v>
+        <v>1132.05</v>
       </c>
       <c r="BL19" s="1">
-        <v>-362.869000</v>
+        <v>-362.86900000000003</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>29848.234535</v>
       </c>
       <c r="BO19" s="1">
-        <v>8.291176</v>
+        <v>8.2911760000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1262.670000</v>
+        <v>1262.67</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-573.256000</v>
+        <v>-573.25599999999997</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>29859.251210</v>
+        <v>29859.251209999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>8.294236</v>
+        <v>8.2942359999999997</v>
       </c>
       <c r="BU19" s="1">
-        <v>1409.770000</v>
+        <v>1409.77</v>
       </c>
       <c r="BV19" s="1">
-        <v>-798.064000</v>
+        <v>-798.06399999999996</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>29870.768810</v>
+        <v>29870.768810000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>8.297436</v>
+        <v>8.2974359999999994</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1571.800000</v>
+        <v>1571.8</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1033.380000</v>
+        <v>-1033.3800000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>29883.736185</v>
+        <v>29883.736185000002</v>
       </c>
       <c r="CD19" s="1">
-        <v>8.301038</v>
+        <v>8.3010380000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1982.280000</v>
+        <v>1982.28</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1582.930000</v>
+        <v>-1582.93</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>29710.208333</v>
+        <v>29710.208332999999</v>
       </c>
       <c r="B20" s="1">
-        <v>8.252836</v>
+        <v>8.2528360000000003</v>
       </c>
       <c r="C20" s="1">
-        <v>905.869000</v>
+        <v>905.86900000000003</v>
       </c>
       <c r="D20" s="1">
-        <v>-196.801000</v>
+        <v>-196.80099999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>29720.639696</v>
+        <v>29720.639695999998</v>
       </c>
       <c r="G20" s="1">
-        <v>8.255733</v>
+        <v>8.2557329999999993</v>
       </c>
       <c r="H20" s="1">
-        <v>922.799000</v>
+        <v>922.79899999999998</v>
       </c>
       <c r="I20" s="1">
-        <v>-166.676000</v>
+        <v>-166.67599999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>29731.141521</v>
+        <v>29731.141521000001</v>
       </c>
       <c r="L20" s="1">
-        <v>8.258650</v>
+        <v>8.2586499999999994</v>
       </c>
       <c r="M20" s="1">
-        <v>944.874000</v>
+        <v>944.87400000000002</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.440000</v>
+        <v>-119.44</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>29741.705316</v>
       </c>
       <c r="Q20" s="1">
-        <v>8.261585</v>
+        <v>8.2615850000000002</v>
       </c>
       <c r="R20" s="1">
-        <v>951.439000</v>
+        <v>951.43899999999996</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.840000</v>
+        <v>-103.84</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>29752.504181</v>
       </c>
       <c r="V20" s="1">
-        <v>8.264584</v>
+        <v>8.2645839999999993</v>
       </c>
       <c r="W20" s="1">
-        <v>957.741000</v>
+        <v>957.74099999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.065400</v>
+        <v>-90.065399999999997</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>29762.757021</v>
+        <v>29762.757021000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>8.267433</v>
+        <v>8.2674330000000005</v>
       </c>
       <c r="AB20" s="1">
-        <v>964.930000</v>
+        <v>964.93</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.425800</v>
+        <v>-80.425799999999995</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>29772.549500</v>
+        <v>29772.549500000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>8.270153</v>
+        <v>8.2701530000000005</v>
       </c>
       <c r="AG20" s="1">
-        <v>969.821000</v>
+        <v>969.82100000000003</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.910900</v>
+        <v>-79.910899999999998</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>29782.772046</v>
+        <v>29782.772045999998</v>
       </c>
       <c r="AK20" s="1">
-        <v>8.272992</v>
+        <v>8.2729920000000003</v>
       </c>
       <c r="AL20" s="1">
-        <v>977.724000</v>
+        <v>977.72400000000005</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.599700</v>
+        <v>-87.599699999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>29793.297189</v>
+        <v>29793.297189000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>8.275916</v>
+        <v>8.2759160000000005</v>
       </c>
       <c r="AQ20" s="1">
-        <v>986.908000</v>
+        <v>986.90800000000002</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.420000</v>
+        <v>-102.42</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>29804.768128</v>
@@ -5242,482 +5658,482 @@
         <v>8.279102</v>
       </c>
       <c r="AV20" s="1">
-        <v>998.298000</v>
+        <v>998.298</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.910000</v>
+        <v>-123.91</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>29815.766418</v>
+        <v>29815.766417999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>8.282157</v>
+        <v>8.2821569999999998</v>
       </c>
       <c r="BA20" s="1">
-        <v>1007.940000</v>
+        <v>1007.94</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.571000</v>
+        <v>-142.571</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>29826.813811</v>
       </c>
       <c r="BE20" s="1">
-        <v>8.285226</v>
+        <v>8.2852259999999998</v>
       </c>
       <c r="BF20" s="1">
-        <v>1053.090000</v>
+        <v>1053.0899999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-227.082000</v>
+        <v>-227.08199999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>29838.117140</v>
+        <v>29838.117139999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>8.288366</v>
+        <v>8.2883659999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1132.020000</v>
+        <v>1132.02</v>
       </c>
       <c r="BL20" s="1">
-        <v>-362.882000</v>
+        <v>-362.88200000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>29848.656631</v>
+        <v>29848.656631000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>8.291294</v>
+        <v>8.2912940000000006</v>
       </c>
       <c r="BP20" s="1">
-        <v>1262.730000</v>
+        <v>1262.73</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-573.330000</v>
+        <v>-573.33000000000004</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>29859.680216</v>
+        <v>29859.680216000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>8.294356</v>
+        <v>8.2943560000000005</v>
       </c>
       <c r="BU20" s="1">
-        <v>1409.780000</v>
+        <v>1409.78</v>
       </c>
       <c r="BV20" s="1">
-        <v>-798.060000</v>
+        <v>-798.06</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>29871.211241</v>
+        <v>29871.211241000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>8.297559</v>
+        <v>8.2975589999999997</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1571.890000</v>
+        <v>1571.89</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1033.480000</v>
+        <v>-1033.48</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>29884.278312</v>
+        <v>29884.278311999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>8.301188</v>
+        <v>8.3011879999999998</v>
       </c>
       <c r="CE20" s="1">
-        <v>1982.080000</v>
+        <v>1982.08</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1580.680000</v>
+        <v>-1580.68</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>29710.550109</v>
       </c>
       <c r="B21" s="1">
-        <v>8.252931</v>
+        <v>8.2529310000000002</v>
       </c>
       <c r="C21" s="1">
-        <v>905.980000</v>
+        <v>905.98</v>
       </c>
       <c r="D21" s="1">
-        <v>-196.963000</v>
+        <v>-196.96299999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>29720.989903</v>
+        <v>29720.989903000002</v>
       </c>
       <c r="G21" s="1">
-        <v>8.255831</v>
+        <v>8.2558310000000006</v>
       </c>
       <c r="H21" s="1">
-        <v>923.265000</v>
+        <v>923.26499999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-166.717000</v>
+        <v>-166.71700000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>29731.830930</v>
+        <v>29731.83093</v>
       </c>
       <c r="L21" s="1">
-        <v>8.258842</v>
+        <v>8.2588419999999996</v>
       </c>
       <c r="M21" s="1">
-        <v>945.108000</v>
+        <v>945.10799999999995</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.457000</v>
+        <v>-119.45699999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>29742.403193</v>
+        <v>29742.403192999998</v>
       </c>
       <c r="Q21" s="1">
-        <v>8.261779</v>
+        <v>8.2617790000000007</v>
       </c>
       <c r="R21" s="1">
-        <v>951.470000</v>
+        <v>951.47</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.927000</v>
+        <v>-103.92700000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>29752.843477</v>
+        <v>29752.843476999999</v>
       </c>
       <c r="V21" s="1">
-        <v>8.264679</v>
+        <v>8.2646789999999992</v>
       </c>
       <c r="W21" s="1">
-        <v>957.811000</v>
+        <v>957.81100000000004</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.002900</v>
+        <v>-90.002899999999997</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>29763.105672</v>
+        <v>29763.105672000002</v>
       </c>
       <c r="AA21" s="1">
-        <v>8.267529</v>
+        <v>8.2675289999999997</v>
       </c>
       <c r="AB21" s="1">
-        <v>964.855000</v>
+        <v>964.85500000000002</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.386200</v>
+        <v>-80.386200000000002</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>29772.895210</v>
+        <v>29772.895209999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>8.270249</v>
+        <v>8.2702489999999997</v>
       </c>
       <c r="AG21" s="1">
-        <v>969.820000</v>
+        <v>969.82</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.865900</v>
+        <v>-79.865899999999996</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>29783.427262</v>
+        <v>29783.427262000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>8.273174</v>
+        <v>8.2731739999999991</v>
       </c>
       <c r="AL21" s="1">
-        <v>977.726000</v>
+        <v>977.726</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.593200</v>
+        <v>-87.593199999999996</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>29793.961295</v>
+        <v>29793.961295000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>8.276100</v>
+        <v>8.2760999999999996</v>
       </c>
       <c r="AQ21" s="1">
-        <v>986.934000</v>
+        <v>986.93399999999997</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.442000</v>
+        <v>-102.44199999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>29805.227189</v>
+        <v>29805.227189000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>8.279230</v>
+        <v>8.2792300000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>998.306000</v>
+        <v>998.30600000000004</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.885000</v>
+        <v>-123.88500000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>29816.155778</v>
       </c>
       <c r="AZ21" s="1">
-        <v>8.282265</v>
+        <v>8.2822650000000007</v>
       </c>
       <c r="BA21" s="1">
-        <v>1007.930000</v>
+        <v>1007.93</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.554000</v>
+        <v>-142.554</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>29827.205187</v>
       </c>
       <c r="BE21" s="1">
-        <v>8.285335</v>
+        <v>8.2853349999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1053.080000</v>
+        <v>1053.08</v>
       </c>
       <c r="BG21" s="1">
-        <v>-227.091000</v>
+        <v>-227.09100000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>29838.491124</v>
       </c>
       <c r="BJ21" s="1">
-        <v>8.288470</v>
+        <v>8.2884700000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1132.030000</v>
+        <v>1132.03</v>
       </c>
       <c r="BL21" s="1">
-        <v>-362.866000</v>
+        <v>-362.86599999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>29849.085702</v>
       </c>
       <c r="BO21" s="1">
-        <v>8.291413</v>
+        <v>8.2914130000000004</v>
       </c>
       <c r="BP21" s="1">
-        <v>1262.710000</v>
+        <v>1262.71</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-573.272000</v>
+        <v>-573.27200000000005</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>29860.113225</v>
+        <v>29860.113225000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>8.294476</v>
+        <v>8.2944759999999995</v>
       </c>
       <c r="BU21" s="1">
-        <v>1409.780000</v>
+        <v>1409.78</v>
       </c>
       <c r="BV21" s="1">
-        <v>-798.034000</v>
+        <v>-798.03399999999999</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>29871.617465</v>
+        <v>29871.617464999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>8.297672</v>
+        <v>8.2976720000000004</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1571.910000</v>
+        <v>1571.91</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1033.370000</v>
+        <v>-1033.3699999999999</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>29884.817463</v>
+        <v>29884.817462999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>8.301338</v>
+        <v>8.3013379999999994</v>
       </c>
       <c r="CE21" s="1">
-        <v>1980.980000</v>
+        <v>1980.98</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1582.870000</v>
+        <v>-1582.87</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>29710.889868</v>
+        <v>29710.889867999998</v>
       </c>
       <c r="B22" s="1">
-        <v>8.253025</v>
+        <v>8.2530249999999992</v>
       </c>
       <c r="C22" s="1">
-        <v>905.700000</v>
+        <v>905.7</v>
       </c>
       <c r="D22" s="1">
-        <v>-196.980000</v>
+        <v>-196.98</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>29721.678816</v>
       </c>
       <c r="G22" s="1">
-        <v>8.256022</v>
+        <v>8.2560219999999997</v>
       </c>
       <c r="H22" s="1">
-        <v>922.553000</v>
+        <v>922.553</v>
       </c>
       <c r="I22" s="1">
-        <v>-166.998000</v>
+        <v>-166.99799999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>29732.175153</v>
       </c>
       <c r="L22" s="1">
-        <v>8.258938</v>
+        <v>8.2589380000000006</v>
       </c>
       <c r="M22" s="1">
-        <v>944.798000</v>
+        <v>944.798</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.250000</v>
+        <v>-119.25</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>29742.751843</v>
+        <v>29742.751842999998</v>
       </c>
       <c r="Q22" s="1">
-        <v>8.261876</v>
+        <v>8.2618760000000009</v>
       </c>
       <c r="R22" s="1">
-        <v>951.418000</v>
+        <v>951.41800000000001</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.880000</v>
+        <v>-103.88</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>29753.190150</v>
+        <v>29753.190149999999</v>
       </c>
       <c r="V22" s="1">
-        <v>8.264775</v>
+        <v>8.2647750000000002</v>
       </c>
       <c r="W22" s="1">
-        <v>957.805000</v>
+        <v>957.80499999999995</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.011700</v>
+        <v>-90.011700000000005</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>29763.450391</v>
+        <v>29763.450390999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>8.267625</v>
+        <v>8.2676250000000007</v>
       </c>
       <c r="AB22" s="1">
-        <v>964.954000</v>
+        <v>964.95399999999995</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.411400</v>
+        <v>-80.4114</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>29773.552453</v>
       </c>
       <c r="AF22" s="1">
-        <v>8.270431</v>
+        <v>8.2704310000000003</v>
       </c>
       <c r="AG22" s="1">
-        <v>969.856000</v>
+        <v>969.85599999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.942100</v>
+        <v>-79.942099999999996</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>29783.815164</v>
@@ -5726,829 +6142,829 @@
         <v>8.273282</v>
       </c>
       <c r="AL22" s="1">
-        <v>977.714000</v>
+        <v>977.71400000000006</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.573400</v>
+        <v>-87.573400000000007</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>29794.376942</v>
+        <v>29794.376941999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>8.276216</v>
+        <v>8.2762159999999998</v>
       </c>
       <c r="AQ22" s="1">
-        <v>986.914000</v>
+        <v>986.91399999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.453000</v>
+        <v>-102.453</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>29805.587519</v>
+        <v>29805.587519000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>8.279330</v>
+        <v>8.2793299999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>998.303000</v>
+        <v>998.303</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.902000</v>
+        <v>-123.902</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>29816.513392</v>
+        <v>29816.513392000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>8.282365</v>
+        <v>8.2823650000000004</v>
       </c>
       <c r="BA22" s="1">
-        <v>1007.950000</v>
+        <v>1007.95</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.576000</v>
+        <v>-142.57599999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>29827.568228</v>
       </c>
       <c r="BE22" s="1">
-        <v>8.285436</v>
+        <v>8.2854360000000007</v>
       </c>
       <c r="BF22" s="1">
-        <v>1053.090000</v>
+        <v>1053.0899999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-227.057000</v>
+        <v>-227.05699999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>29838.913743</v>
+        <v>29838.913743000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>8.288587</v>
+        <v>8.2885869999999997</v>
       </c>
       <c r="BK22" s="1">
-        <v>1132.070000</v>
+        <v>1132.07</v>
       </c>
       <c r="BL22" s="1">
-        <v>-362.876000</v>
+        <v>-362.87599999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>29849.477509</v>
       </c>
       <c r="BO22" s="1">
-        <v>8.291522</v>
+        <v>8.2915220000000005</v>
       </c>
       <c r="BP22" s="1">
-        <v>1262.730000</v>
+        <v>1262.73</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-573.300000</v>
+        <v>-573.29999999999995</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>29860.522553</v>
+        <v>29860.522552999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>8.294590</v>
+        <v>8.2945899999999995</v>
       </c>
       <c r="BU22" s="1">
-        <v>1409.870000</v>
+        <v>1409.87</v>
       </c>
       <c r="BV22" s="1">
-        <v>-798.088000</v>
+        <v>-798.08799999999997</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>29872.034603</v>
       </c>
       <c r="BY22" s="1">
-        <v>8.297787</v>
+        <v>8.2977869999999996</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1571.770000</v>
+        <v>1571.77</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1033.420000</v>
+        <v>-1033.42</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>29885.357110</v>
+        <v>29885.357110000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>8.301488</v>
+        <v>8.3014880000000009</v>
       </c>
       <c r="CE22" s="1">
-        <v>1982.540000</v>
+        <v>1982.54</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1581.660000</v>
+        <v>-1581.66</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>29711.573356</v>
+        <v>29711.573356000001</v>
       </c>
       <c r="B23" s="1">
-        <v>8.253215</v>
+        <v>8.2532150000000009</v>
       </c>
       <c r="C23" s="1">
-        <v>905.968000</v>
+        <v>905.96799999999996</v>
       </c>
       <c r="D23" s="1">
-        <v>-197.045000</v>
+        <v>-197.04499999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>29722.022542</v>
+        <v>29722.022541999999</v>
       </c>
       <c r="G23" s="1">
-        <v>8.256117</v>
+        <v>8.2561169999999997</v>
       </c>
       <c r="H23" s="1">
-        <v>923.048000</v>
+        <v>923.048</v>
       </c>
       <c r="I23" s="1">
-        <v>-166.582000</v>
+        <v>-166.58199999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>29732.522352</v>
       </c>
       <c r="L23" s="1">
-        <v>8.259034</v>
+        <v>8.2590339999999998</v>
       </c>
       <c r="M23" s="1">
-        <v>944.896000</v>
+        <v>944.89599999999996</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.331000</v>
+        <v>-119.331</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>29743.100530</v>
+        <v>29743.10053</v>
       </c>
       <c r="Q23" s="1">
-        <v>8.261972</v>
+        <v>8.2619720000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>951.407000</v>
+        <v>951.40700000000004</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.902000</v>
+        <v>-103.902</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>29753.846852</v>
+        <v>29753.846851999999</v>
       </c>
       <c r="V23" s="1">
-        <v>8.264957</v>
+        <v>8.2649570000000008</v>
       </c>
       <c r="W23" s="1">
-        <v>957.841000</v>
+        <v>957.84100000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.010600</v>
+        <v>-90.010599999999997</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>29763.907702</v>
       </c>
       <c r="AA23" s="1">
-        <v>8.267752</v>
+        <v>8.2677519999999998</v>
       </c>
       <c r="AB23" s="1">
-        <v>964.914000</v>
+        <v>964.91399999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.357400</v>
+        <v>-80.357399999999998</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>29773.928411</v>
+        <v>29773.928411000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>8.270536</v>
+        <v>8.2705359999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>969.817000</v>
+        <v>969.81700000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.863300</v>
+        <v>-79.863299999999995</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>29784.163324</v>
+        <v>29784.163324000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>8.273379</v>
+        <v>8.2733790000000003</v>
       </c>
       <c r="AL23" s="1">
-        <v>977.724000</v>
+        <v>977.72400000000005</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.577700</v>
+        <v>-87.577699999999993</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>29794.757898</v>
       </c>
       <c r="AP23" s="1">
-        <v>8.276322</v>
+        <v>8.2763220000000004</v>
       </c>
       <c r="AQ23" s="1">
-        <v>986.925000</v>
+        <v>986.92499999999995</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.447000</v>
+        <v>-102.447</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>29805.953073</v>
+        <v>29805.953073000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>8.279431</v>
+        <v>8.2794310000000007</v>
       </c>
       <c r="AV23" s="1">
-        <v>998.302000</v>
+        <v>998.30200000000002</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.895000</v>
+        <v>-123.895</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>29816.948913</v>
       </c>
       <c r="AZ23" s="1">
-        <v>8.282486</v>
+        <v>8.2824860000000005</v>
       </c>
       <c r="BA23" s="1">
-        <v>1007.940000</v>
+        <v>1007.94</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.586000</v>
+        <v>-142.58600000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>29827.987346</v>
+        <v>29827.987346000002</v>
       </c>
       <c r="BE23" s="1">
-        <v>8.285552</v>
+        <v>8.2855519999999991</v>
       </c>
       <c r="BF23" s="1">
-        <v>1053.100000</v>
+        <v>1053.0999999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-227.089000</v>
+        <v>-227.089</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>29839.274307</v>
       </c>
       <c r="BJ23" s="1">
-        <v>8.288687</v>
+        <v>8.2886869999999995</v>
       </c>
       <c r="BK23" s="1">
-        <v>1132.070000</v>
+        <v>1132.07</v>
       </c>
       <c r="BL23" s="1">
-        <v>-362.864000</v>
+        <v>-362.86399999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>29849.873827</v>
+        <v>29849.873826999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>8.291632</v>
+        <v>8.2916319999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1262.720000</v>
+        <v>1262.72</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-573.252000</v>
+        <v>-573.25199999999995</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>29860.952492</v>
       </c>
       <c r="BT23" s="1">
-        <v>8.294709</v>
+        <v>8.2947089999999992</v>
       </c>
       <c r="BU23" s="1">
-        <v>1409.850000</v>
+        <v>1409.85</v>
       </c>
       <c r="BV23" s="1">
-        <v>-797.980000</v>
+        <v>-797.98</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>29872.477526</v>
+        <v>29872.477525999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>8.297910</v>
+        <v>8.2979099999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1571.840000</v>
+        <v>1571.84</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1033.400000</v>
+        <v>-1033.4000000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>29885.895766</v>
+        <v>29885.895766000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>8.301638</v>
+        <v>8.3016380000000005</v>
       </c>
       <c r="CE23" s="1">
-        <v>1980.830000</v>
+        <v>1980.83</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1581.760000</v>
+        <v>-1581.76</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>29711.915595</v>
+        <v>29711.915594999999</v>
       </c>
       <c r="B24" s="1">
-        <v>8.253310</v>
+        <v>8.2533100000000008</v>
       </c>
       <c r="C24" s="1">
-        <v>905.829000</v>
+        <v>905.82899999999995</v>
       </c>
       <c r="D24" s="1">
-        <v>-197.017000</v>
+        <v>-197.017</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>29722.368253</v>
+        <v>29722.368253000001</v>
       </c>
       <c r="G24" s="1">
-        <v>8.256213</v>
+        <v>8.2562130000000007</v>
       </c>
       <c r="H24" s="1">
-        <v>922.449000</v>
+        <v>922.44899999999996</v>
       </c>
       <c r="I24" s="1">
-        <v>-166.634000</v>
+        <v>-166.63399999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>29733.175088</v>
       </c>
       <c r="L24" s="1">
-        <v>8.259215</v>
+        <v>8.2592149999999993</v>
       </c>
       <c r="M24" s="1">
-        <v>945.027000</v>
+        <v>945.02700000000004</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.379000</v>
+        <v>-119.379</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>29743.754754</v>
+        <v>29743.754754000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>8.262154</v>
+        <v>8.2621540000000007</v>
       </c>
       <c r="R24" s="1">
-        <v>951.430000</v>
+        <v>951.43</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.845000</v>
+        <v>-103.845</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>29754.219379</v>
+        <v>29754.219378999998</v>
       </c>
       <c r="V24" s="1">
-        <v>8.265061</v>
+        <v>8.2650609999999993</v>
       </c>
       <c r="W24" s="1">
-        <v>957.804000</v>
+        <v>957.80399999999997</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.961600</v>
+        <v>-89.961600000000004</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>29764.151734</v>
+        <v>29764.151733999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>8.267820</v>
+        <v>8.2678200000000004</v>
       </c>
       <c r="AB24" s="1">
-        <v>964.952000</v>
+        <v>964.952</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.361300</v>
+        <v>-80.3613</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>29774.277561</v>
+        <v>29774.277560999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>8.270633</v>
+        <v>8.2706330000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>969.825000</v>
+        <v>969.82500000000005</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.857100</v>
+        <v>-79.857100000000003</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>29784.509531</v>
       </c>
       <c r="AK24" s="1">
-        <v>8.273475</v>
+        <v>8.2734749999999995</v>
       </c>
       <c r="AL24" s="1">
-        <v>977.743000</v>
+        <v>977.74300000000005</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.571700</v>
+        <v>-87.571700000000007</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>29795.116973</v>
       </c>
       <c r="AP24" s="1">
-        <v>8.276421</v>
+        <v>8.2764209999999991</v>
       </c>
       <c r="AQ24" s="1">
-        <v>986.925000</v>
+        <v>986.92499999999995</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.430000</v>
+        <v>-102.43</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>29806.376192</v>
       </c>
       <c r="AU24" s="1">
-        <v>8.279549</v>
+        <v>8.2795489999999994</v>
       </c>
       <c r="AV24" s="1">
-        <v>998.309000</v>
+        <v>998.30899999999997</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.897000</v>
+        <v>-123.89700000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>29817.227632</v>
+        <v>29817.227631999998</v>
       </c>
       <c r="AZ24" s="1">
-        <v>8.282563</v>
+        <v>8.2825629999999997</v>
       </c>
       <c r="BA24" s="1">
-        <v>1007.920000</v>
+        <v>1007.92</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.557000</v>
+        <v>-142.55699999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>29828.288417</v>
       </c>
       <c r="BE24" s="1">
-        <v>8.285636</v>
+        <v>8.2856360000000002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1053.090000</v>
+        <v>1053.0899999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-227.117000</v>
+        <v>-227.11699999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>29839.648786</v>
+        <v>29839.648786000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>8.288791</v>
+        <v>8.2887909999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1132.030000</v>
+        <v>1132.03</v>
       </c>
       <c r="BL24" s="1">
-        <v>-362.898000</v>
+        <v>-362.89800000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>29850.294420</v>
+        <v>29850.294419999998</v>
       </c>
       <c r="BO24" s="1">
-        <v>8.291748</v>
+        <v>8.2917480000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1262.730000</v>
+        <v>1262.73</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-573.273000</v>
+        <v>-573.27300000000002</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>29861.381494</v>
+        <v>29861.381494000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>8.294828</v>
+        <v>8.2948280000000008</v>
       </c>
       <c r="BU24" s="1">
-        <v>1409.880000</v>
+        <v>1409.88</v>
       </c>
       <c r="BV24" s="1">
-        <v>-797.962000</v>
+        <v>-797.96199999999999</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>29872.903592</v>
+        <v>29872.903591999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>8.298029</v>
+        <v>8.2980289999999997</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1571.870000</v>
+        <v>1571.87</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1033.370000</v>
+        <v>-1033.3699999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>29886.438390</v>
+        <v>29886.438389999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>8.301788</v>
+        <v>8.3017880000000002</v>
       </c>
       <c r="CE24" s="1">
-        <v>1981.960000</v>
+        <v>1981.96</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1583.030000</v>
+        <v>-1583.03</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>29712.259325</v>
+        <v>29712.259324999999</v>
       </c>
       <c r="B25" s="1">
-        <v>8.253405</v>
+        <v>8.2534050000000008</v>
       </c>
       <c r="C25" s="1">
-        <v>905.778000</v>
+        <v>905.77800000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>-196.930000</v>
+        <v>-196.93</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>29723.020531</v>
+        <v>29723.020530999998</v>
       </c>
       <c r="G25" s="1">
-        <v>8.256395</v>
+        <v>8.2563949999999995</v>
       </c>
       <c r="H25" s="1">
-        <v>922.866000</v>
+        <v>922.86599999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-166.993000</v>
+        <v>-166.99299999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>29733.558990</v>
+        <v>29733.558990000001</v>
       </c>
       <c r="L25" s="1">
-        <v>8.259322</v>
+        <v>8.2593219999999992</v>
       </c>
       <c r="M25" s="1">
-        <v>944.834000</v>
+        <v>944.83399999999995</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.425000</v>
+        <v>-119.425</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>29744.146097</v>
+        <v>29744.146097000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>8.262263</v>
+        <v>8.2622630000000008</v>
       </c>
       <c r="R25" s="1">
-        <v>951.430000</v>
+        <v>951.43</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.871000</v>
+        <v>-103.871</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>29754.562579</v>
+        <v>29754.562579000001</v>
       </c>
       <c r="V25" s="1">
-        <v>8.265156</v>
+        <v>8.2651559999999993</v>
       </c>
       <c r="W25" s="1">
-        <v>957.809000</v>
+        <v>957.80899999999997</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.998600</v>
+        <v>-89.998599999999996</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>29764.502939</v>
+        <v>29764.502939000002</v>
       </c>
       <c r="AA25" s="1">
-        <v>8.267917</v>
+        <v>8.2679170000000006</v>
       </c>
       <c r="AB25" s="1">
-        <v>964.838000</v>
+        <v>964.83799999999997</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.285800</v>
+        <v>-80.285799999999995</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>29774.621289</v>
+        <v>29774.621288999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>8.270728</v>
+        <v>8.2707280000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>969.867000</v>
+        <v>969.86699999999996</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.917100</v>
+        <v>-79.917100000000005</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>29784.934603</v>
+        <v>29784.934603000002</v>
       </c>
       <c r="AK25" s="1">
         <v>8.273593</v>
       </c>
       <c r="AL25" s="1">
-        <v>977.730000</v>
+        <v>977.73</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.574500</v>
+        <v>-87.5745</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>29795.539565</v>
+        <v>29795.539564999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>8.276539</v>
+        <v>8.2765389999999996</v>
       </c>
       <c r="AQ25" s="1">
-        <v>986.930000</v>
+        <v>986.93</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.459000</v>
+        <v>-102.459</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>29806.684697</v>
+        <v>29806.684697000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>8.279635</v>
+        <v>8.2796350000000007</v>
       </c>
       <c r="AV25" s="1">
-        <v>998.293000</v>
+        <v>998.29300000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.907000</v>
+        <v>-123.907</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>29817.590243</v>
+        <v>29817.590242999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>8.282664</v>
+        <v>8.2826640000000005</v>
       </c>
       <c r="BA25" s="1">
-        <v>1007.930000</v>
+        <v>1007.93</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.580000</v>
+        <v>-142.58000000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>29828.648017</v>
@@ -6557,135 +6973,135 @@
         <v>8.285736</v>
       </c>
       <c r="BF25" s="1">
-        <v>1053.090000</v>
+        <v>1053.0899999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-227.093000</v>
+        <v>-227.09299999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>29840.022802</v>
       </c>
       <c r="BJ25" s="1">
-        <v>8.288895</v>
+        <v>8.2888950000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1132.030000</v>
+        <v>1132.03</v>
       </c>
       <c r="BL25" s="1">
-        <v>-362.869000</v>
+        <v>-362.86900000000003</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>29851.098436</v>
       </c>
       <c r="BO25" s="1">
-        <v>8.291972</v>
+        <v>8.2919719999999995</v>
       </c>
       <c r="BP25" s="1">
-        <v>1262.760000</v>
+        <v>1262.76</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-573.298000</v>
+        <v>-573.298</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>29862.220768</v>
+        <v>29862.220767999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>8.295061</v>
+        <v>8.2950610000000005</v>
       </c>
       <c r="BU25" s="1">
-        <v>1409.920000</v>
+        <v>1409.92</v>
       </c>
       <c r="BV25" s="1">
-        <v>-798.058000</v>
+        <v>-798.05799999999999</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>29873.324662</v>
+        <v>29873.324661999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>8.298146</v>
+        <v>8.2981459999999991</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1571.840000</v>
+        <v>1571.84</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1033.470000</v>
+        <v>-1033.47</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>29886.976548</v>
+        <v>29886.976547999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>8.301938</v>
+        <v>8.3019379999999998</v>
       </c>
       <c r="CE25" s="1">
-        <v>1981.830000</v>
+        <v>1981.83</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1580.580000</v>
+        <v>-1580.58</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>29712.906112</v>
+        <v>29712.906112000001</v>
       </c>
       <c r="B26" s="1">
-        <v>8.253585</v>
+        <v>8.2535849999999993</v>
       </c>
       <c r="C26" s="1">
-        <v>906.059000</v>
+        <v>906.05899999999997</v>
       </c>
       <c r="D26" s="1">
-        <v>-197.217000</v>
+        <v>-197.21700000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>29723.400428</v>
+        <v>29723.400428000001</v>
       </c>
       <c r="G26" s="1">
-        <v>8.256500</v>
+        <v>8.2565000000000008</v>
       </c>
       <c r="H26" s="1">
-        <v>922.957000</v>
+        <v>922.95699999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-166.887000</v>
+        <v>-166.887</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>29733.905231</v>
+        <v>29733.905231000001</v>
       </c>
       <c r="L26" s="1">
-        <v>8.259418</v>
+        <v>8.2594180000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>944.983000</v>
+        <v>944.98299999999995</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.154000</v>
+        <v>-119.154</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>29744.492801</v>
@@ -6694,210 +7110,211 @@
         <v>8.262359</v>
       </c>
       <c r="R26" s="1">
-        <v>951.448000</v>
+        <v>951.44799999999998</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.886000</v>
+        <v>-103.886</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>29754.910770</v>
+        <v>29754.910769999999</v>
       </c>
       <c r="V26" s="1">
-        <v>8.265253</v>
+        <v>8.2652529999999995</v>
       </c>
       <c r="W26" s="1">
-        <v>957.854000</v>
+        <v>957.85400000000004</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.004800</v>
+        <v>-90.004800000000003</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>29764.928967</v>
       </c>
       <c r="AA26" s="1">
-        <v>8.268036</v>
+        <v>8.2680360000000004</v>
       </c>
       <c r="AB26" s="1">
-        <v>964.851000</v>
+        <v>964.851</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.337500</v>
+        <v>-80.337500000000006</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>29775.045868</v>
+        <v>29775.045868000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>8.270846</v>
+        <v>8.2708460000000006</v>
       </c>
       <c r="AG26" s="1">
-        <v>969.826000</v>
+        <v>969.82600000000002</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.919500</v>
+        <v>-79.919499999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>29785.215338</v>
+        <v>29785.215338000002</v>
       </c>
       <c r="AK26" s="1">
-        <v>8.273671</v>
+        <v>8.2736710000000002</v>
       </c>
       <c r="AL26" s="1">
-        <v>977.729000</v>
+        <v>977.72900000000004</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.570100</v>
+        <v>-87.570099999999996</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>29795.842124</v>
+        <v>29795.842123999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>8.276623</v>
+        <v>8.2766230000000007</v>
       </c>
       <c r="AQ26" s="1">
-        <v>986.938000</v>
+        <v>986.93799999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.451000</v>
+        <v>-102.45099999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>29807.047771</v>
+        <v>29807.047771000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>8.279735</v>
+        <v>8.2797350000000005</v>
       </c>
       <c r="AV26" s="1">
-        <v>998.303000</v>
+        <v>998.303</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.903000</v>
+        <v>-123.90300000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>29817.946833</v>
+        <v>29817.946833000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>8.282763</v>
+        <v>8.2827629999999992</v>
       </c>
       <c r="BA26" s="1">
-        <v>1007.910000</v>
+        <v>1007.91</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.575000</v>
+        <v>-142.57499999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>29829.007617</v>
+        <v>29829.007616999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>8.285835</v>
+        <v>8.2858350000000005</v>
       </c>
       <c r="BF26" s="1">
-        <v>1053.090000</v>
+        <v>1053.0899999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-227.120000</v>
+        <v>-227.12</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>29840.808434</v>
+        <v>29840.808433999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>8.289113</v>
+        <v>8.2891130000000004</v>
       </c>
       <c r="BK26" s="1">
-        <v>1132.070000</v>
+        <v>1132.07</v>
       </c>
       <c r="BL26" s="1">
-        <v>-362.896000</v>
+        <v>-362.89600000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>29851.528476</v>
       </c>
       <c r="BO26" s="1">
-        <v>8.292091</v>
+        <v>8.2920909999999992</v>
       </c>
       <c r="BP26" s="1">
-        <v>1262.720000</v>
+        <v>1262.72</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-573.288000</v>
+        <v>-573.28800000000001</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>29862.654266</v>
+        <v>29862.654266000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>8.295182</v>
+        <v>8.2951820000000005</v>
       </c>
       <c r="BU26" s="1">
-        <v>1409.910000</v>
+        <v>1409.91</v>
       </c>
       <c r="BV26" s="1">
-        <v>-798.072000</v>
+        <v>-798.072</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>29873.772063</v>
       </c>
       <c r="BY26" s="1">
-        <v>8.298270</v>
+        <v>8.2982700000000005</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1571.840000</v>
+        <v>1571.84</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1033.420000</v>
+        <v>-1033.42</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>29887.826195</v>
+        <v>29887.826195000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>8.302174</v>
+        <v>8.3021740000000008</v>
       </c>
       <c r="CE26" s="1">
-        <v>1982.480000</v>
+        <v>1982.48</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1582.420000</v>
+        <v>-1582.42</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>